--- a/review_sessions/review_7/STAR_teachers.xlsx
+++ b/review_sessions/review_7/STAR_teachers.xlsx
@@ -12,24 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t xml:space="preserve">gktchid</t>
+    <t xml:space="preserve">teacher_id</t>
   </si>
   <si>
-    <t xml:space="preserve">gkclasstype</t>
+    <t xml:space="preserve">class_type</t>
   </si>
   <si>
-    <t xml:space="preserve">gktreadss</t>
+    <t xml:space="preserve">reading_score</t>
   </si>
   <si>
-    <t xml:space="preserve">gktmathss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsactread</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsactmath</t>
+    <t xml:space="preserve">math_score</t>
   </si>
   <si>
     <t xml:space="preserve">S</t>
@@ -380,31 +374,19 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>11203801</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>406.5</v>
       </c>
       <c r="D2" t="n">
         <v>448.5</v>
-      </c>
-      <c r="E2" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>19.5</v>
       </c>
     </row>
     <row r="3">
@@ -412,19 +394,13 @@
         <v>11203802</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>410</v>
       </c>
       <c r="D3" t="n">
         <v>454</v>
-      </c>
-      <c r="E3" t="n">
-        <v>25</v>
-      </c>
-      <c r="F3" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -432,19 +408,13 @@
         <v>11203803</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>410.2</v>
       </c>
       <c r="D4" t="n">
         <v>479.4</v>
-      </c>
-      <c r="E4" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="F4" t="n">
-        <v>20.6</v>
       </c>
     </row>
     <row r="5">
@@ -452,19 +422,13 @@
         <v>12305601</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>437.875</v>
       </c>
       <c r="D5" t="n">
         <v>477.875</v>
-      </c>
-      <c r="E5" t="n">
-        <v>23.125</v>
-      </c>
-      <c r="F5" t="n">
-        <v>19.75</v>
       </c>
     </row>
     <row r="6">
@@ -472,19 +436,13 @@
         <v>12305602</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>418.5</v>
       </c>
       <c r="D6" t="n">
         <v>472.75</v>
-      </c>
-      <c r="E6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>19.5</v>
       </c>
     </row>
     <row r="7">
@@ -492,19 +450,13 @@
         <v>12305603</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>429.5</v>
       </c>
       <c r="D7" t="n">
         <v>480</v>
-      </c>
-      <c r="E7" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="F7" t="n">
-        <v>16.5</v>
       </c>
     </row>
     <row r="8">
@@ -512,19 +464,13 @@
         <v>12806801</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>454</v>
       </c>
       <c r="D8" t="n">
         <v>503.333333333333</v>
-      </c>
-      <c r="E8" t="n">
-        <v>26.3333333333333</v>
-      </c>
-      <c r="F8" t="n">
-        <v>22.6666666666667</v>
       </c>
     </row>
     <row r="9">
@@ -532,19 +478,13 @@
         <v>12806802</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
         <v>444.5</v>
       </c>
       <c r="D9" t="n">
         <v>492.75</v>
-      </c>
-      <c r="E9" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="F9" t="n">
-        <v>19.75</v>
       </c>
     </row>
     <row r="10">
@@ -552,19 +492,13 @@
         <v>12806803</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
         <v>444.4</v>
       </c>
       <c r="D10" t="n">
         <v>513.4</v>
-      </c>
-      <c r="E10" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="F10" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -572,19 +506,13 @@
         <v>12807601</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
         <v>430.5</v>
       </c>
       <c r="D11" t="n">
         <v>469.833333333333</v>
-      </c>
-      <c r="E11" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="F11" t="n">
-        <v>17.5</v>
       </c>
     </row>
     <row r="12">
@@ -592,19 +520,13 @@
         <v>12807602</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
         <v>432</v>
       </c>
       <c r="D12" t="n">
         <v>463.375</v>
-      </c>
-      <c r="E12" t="n">
-        <v>22.875</v>
-      </c>
-      <c r="F12" t="n">
-        <v>21.25</v>
       </c>
     </row>
     <row r="13">
@@ -612,19 +534,13 @@
         <v>12807603</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
         <v>417.909090909091</v>
       </c>
       <c r="D13" t="n">
         <v>478.272727272727</v>
-      </c>
-      <c r="E13" t="n">
-        <v>16.9090909090909</v>
-      </c>
-      <c r="F13" t="n">
-        <v>17.9090909090909</v>
       </c>
     </row>
     <row r="14">
@@ -632,19 +548,13 @@
         <v>12807901</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
         <v>427.25</v>
       </c>
       <c r="D14" t="n">
         <v>450.25</v>
-      </c>
-      <c r="E14" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F14" t="n">
-        <v>21.25</v>
       </c>
     </row>
     <row r="15">
@@ -652,19 +562,13 @@
         <v>12807902</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
         <v>431.666666666667</v>
       </c>
       <c r="D15" t="n">
         <v>480.833333333333</v>
-      </c>
-      <c r="E15" t="n">
-        <v>18.6666666666667</v>
-      </c>
-      <c r="F15" t="n">
-        <v>19.5</v>
       </c>
     </row>
     <row r="16">
@@ -672,19 +576,13 @@
         <v>12807903</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
         <v>517.75</v>
       </c>
       <c r="D16" t="n">
         <v>514.75</v>
-      </c>
-      <c r="E16" t="n">
-        <v>27</v>
-      </c>
-      <c r="F16" t="n">
-        <v>21.5</v>
       </c>
     </row>
     <row r="17">
@@ -692,19 +590,13 @@
         <v>13008501</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
         <v>434.818181818182</v>
       </c>
       <c r="D17" t="n">
         <v>491.181818181818</v>
-      </c>
-      <c r="E17" t="n">
-        <v>22.2727272727273</v>
-      </c>
-      <c r="F17" t="n">
-        <v>19.6363636363636</v>
       </c>
     </row>
     <row r="18">
@@ -712,19 +604,13 @@
         <v>13008502</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
         <v>450</v>
       </c>
       <c r="D18" t="n">
         <v>528</v>
-      </c>
-      <c r="E18" t="n">
-        <v>20</v>
-      </c>
-      <c r="F18" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="19">
@@ -732,19 +618,13 @@
         <v>13008503</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
         <v>434.636363636364</v>
       </c>
       <c r="D19" t="n">
         <v>508.909090909091</v>
-      </c>
-      <c r="E19" t="n">
-        <v>22.6363636363636</v>
-      </c>
-      <c r="F19" t="n">
-        <v>21.7272727272727</v>
       </c>
     </row>
     <row r="20">
@@ -752,19 +632,13 @@
         <v>13008504</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
         <v>444.571428571429</v>
       </c>
       <c r="D20" t="n">
         <v>505.714285714286</v>
-      </c>
-      <c r="E20" t="n">
-        <v>22.1428571428571</v>
-      </c>
-      <c r="F20" t="n">
-        <v>23.2857142857143</v>
       </c>
     </row>
     <row r="21">
@@ -772,19 +646,13 @@
         <v>15917101</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
         <v>458.555555555556</v>
       </c>
       <c r="D21" t="n">
         <v>489.555555555556</v>
-      </c>
-      <c r="E21" t="n">
-        <v>21.6666666666667</v>
-      </c>
-      <c r="F21" t="n">
-        <v>18.8888888888889</v>
       </c>
     </row>
     <row r="22">
@@ -792,19 +660,13 @@
         <v>15917102</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C22" t="n">
         <v>461.625</v>
       </c>
       <c r="D22" t="n">
         <v>511.75</v>
-      </c>
-      <c r="E22" t="n">
-        <v>19.625</v>
-      </c>
-      <c r="F22" t="n">
-        <v>17.75</v>
       </c>
     </row>
     <row r="23">
@@ -812,19 +674,13 @@
         <v>15917103</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23" t="n">
         <v>495.1</v>
       </c>
       <c r="D23" t="n">
         <v>530.5</v>
-      </c>
-      <c r="E23" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>17.4</v>
       </c>
     </row>
     <row r="24">
@@ -832,19 +688,13 @@
         <v>15917104</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C24" t="n">
         <v>460.5</v>
       </c>
       <c r="D24" t="n">
         <v>531.375</v>
-      </c>
-      <c r="E24" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="F24" t="n">
-        <v>15.375</v>
       </c>
     </row>
     <row r="25">
@@ -852,19 +702,13 @@
         <v>15917105</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" t="n">
         <v>482.846153846154</v>
       </c>
       <c r="D25" t="n">
         <v>531.615384615385</v>
-      </c>
-      <c r="E25" t="n">
-        <v>19.3076923076923</v>
-      </c>
-      <c r="F25" t="n">
-        <v>18.2307692307692</v>
       </c>
     </row>
     <row r="26">
@@ -872,19 +716,13 @@
         <v>16117601</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C26" t="n">
         <v>417.5</v>
       </c>
       <c r="D26" t="n">
         <v>476.5</v>
-      </c>
-      <c r="E26" t="n">
-        <v>18.375</v>
-      </c>
-      <c r="F26" t="n">
-        <v>16.125</v>
       </c>
     </row>
     <row r="27">
@@ -892,19 +730,13 @@
         <v>16117602</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C27" t="n">
         <v>430.857142857143</v>
       </c>
       <c r="D27" t="n">
         <v>498</v>
-      </c>
-      <c r="E27" t="n">
-        <v>20.2857142857143</v>
-      </c>
-      <c r="F27" t="n">
-        <v>19.5714285714286</v>
       </c>
     </row>
     <row r="28">
@@ -912,19 +744,13 @@
         <v>16117603</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C28" t="n">
         <v>429.6</v>
       </c>
       <c r="D28" t="n">
         <v>499.8</v>
-      </c>
-      <c r="E28" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="F28" t="n">
-        <v>23.1</v>
       </c>
     </row>
     <row r="29">
@@ -932,19 +758,13 @@
         <v>16117604</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C29" t="n">
         <v>438.857142857143</v>
       </c>
       <c r="D29" t="n">
         <v>490.714285714286</v>
-      </c>
-      <c r="E29" t="n">
-        <v>22.5714285714286</v>
-      </c>
-      <c r="F29" t="n">
-        <v>18.4285714285714</v>
       </c>
     </row>
     <row r="30">
@@ -952,19 +772,13 @@
         <v>16118301</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C30" t="n">
         <v>441.333333333333</v>
       </c>
       <c r="D30" t="n">
         <v>515.25</v>
-      </c>
-      <c r="E30" t="n">
-        <v>20.9166666666667</v>
-      </c>
-      <c r="F30" t="n">
-        <v>17.5</v>
       </c>
     </row>
     <row r="31">
@@ -972,19 +786,13 @@
         <v>16118302</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C31" t="n">
         <v>473.142857142857</v>
       </c>
       <c r="D31" t="n">
         <v>532.571428571429</v>
-      </c>
-      <c r="E31" t="n">
-        <v>18.8571428571429</v>
-      </c>
-      <c r="F31" t="n">
-        <v>17.4285714285714</v>
       </c>
     </row>
     <row r="32">
@@ -992,19 +800,13 @@
         <v>16118303</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C32" t="n">
         <v>470.714285714286</v>
       </c>
       <c r="D32" t="n">
         <v>573.571428571429</v>
-      </c>
-      <c r="E32" t="n">
-        <v>23.5714285714286</v>
-      </c>
-      <c r="F32" t="n">
-        <v>18.1428571428571</v>
       </c>
     </row>
     <row r="33">
@@ -1012,19 +814,13 @@
         <v>16118304</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C33" t="n">
         <v>465.5</v>
       </c>
       <c r="D33" t="n">
         <v>518.833333333333</v>
-      </c>
-      <c r="E33" t="n">
-        <v>18</v>
-      </c>
-      <c r="F33" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="34">
@@ -1032,19 +828,13 @@
         <v>16118305</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C34" t="n">
         <v>473</v>
       </c>
       <c r="D34" t="n">
         <v>538.6</v>
-      </c>
-      <c r="E34" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="F34" t="n">
-        <v>16.6</v>
       </c>
     </row>
     <row r="35">
@@ -1052,19 +842,13 @@
         <v>16118306</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C35" t="n">
         <v>476.5</v>
       </c>
       <c r="D35" t="n">
         <v>537.333333333333</v>
-      </c>
-      <c r="E35" t="n">
-        <v>18.6666666666667</v>
-      </c>
-      <c r="F35" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -1072,19 +856,13 @@
         <v>16218401</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C36" t="n">
         <v>453.222222222222</v>
       </c>
       <c r="D36" t="n">
         <v>517</v>
-      </c>
-      <c r="E36" t="n">
-        <v>22.6666666666667</v>
-      </c>
-      <c r="F36" t="n">
-        <v>19.3333333333333</v>
       </c>
     </row>
     <row r="37">
@@ -1092,19 +870,13 @@
         <v>16218402</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C37" t="n">
         <v>430.142857142857</v>
       </c>
       <c r="D37" t="n">
         <v>473.285714285714</v>
-      </c>
-      <c r="E37" t="n">
-        <v>17.7142857142857</v>
-      </c>
-      <c r="F37" t="n">
-        <v>19.8571428571429</v>
       </c>
     </row>
     <row r="38">
@@ -1112,19 +884,13 @@
         <v>16218403</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C38" t="n">
         <v>433.4</v>
       </c>
       <c r="D38" t="n">
         <v>505.6</v>
-      </c>
-      <c r="E38" t="n">
-        <v>23</v>
-      </c>
-      <c r="F38" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="39">
@@ -1132,19 +898,13 @@
         <v>16218404</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C39" t="n">
         <v>444</v>
       </c>
       <c r="D39" t="n">
         <v>504.2</v>
-      </c>
-      <c r="E39" t="n">
-        <v>23</v>
-      </c>
-      <c r="F39" t="n">
-        <v>19.8</v>
       </c>
     </row>
     <row r="40">
@@ -1152,19 +912,13 @@
         <v>16419801</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C40" t="n">
         <v>446.454545454545</v>
       </c>
       <c r="D40" t="n">
         <v>498.545454545455</v>
-      </c>
-      <c r="E40" t="n">
-        <v>19.1818181818182</v>
-      </c>
-      <c r="F40" t="n">
-        <v>17.1818181818182</v>
       </c>
     </row>
     <row r="41">
@@ -1172,19 +926,13 @@
         <v>16419802</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C41" t="n">
         <v>489.142857142857</v>
       </c>
       <c r="D41" t="n">
         <v>550.428571428571</v>
-      </c>
-      <c r="E41" t="n">
-        <v>23.2857142857143</v>
-      </c>
-      <c r="F41" t="n">
-        <v>20.4285714285714</v>
       </c>
     </row>
     <row r="42">
@@ -1192,19 +940,13 @@
         <v>16419803</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C42" t="n">
         <v>448.666666666667</v>
       </c>
       <c r="D42" t="n">
         <v>494.333333333333</v>
-      </c>
-      <c r="E42" t="n">
-        <v>18</v>
-      </c>
-      <c r="F42" t="n">
-        <v>18.7777777777778</v>
       </c>
     </row>
     <row r="43">
@@ -1212,19 +954,13 @@
         <v>16519901</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C43" t="n">
         <v>490.714285714286</v>
       </c>
       <c r="D43" t="n">
         <v>566</v>
-      </c>
-      <c r="E43" t="n">
-        <v>23.1428571428571</v>
-      </c>
-      <c r="F43" t="n">
-        <v>18.7142857142857</v>
       </c>
     </row>
     <row r="44">
@@ -1232,19 +968,13 @@
         <v>16519902</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C44" t="n">
         <v>472.181818181818</v>
       </c>
       <c r="D44" t="n">
         <v>524.909090909091</v>
-      </c>
-      <c r="E44" t="n">
-        <v>22</v>
-      </c>
-      <c r="F44" t="n">
-        <v>19.9090909090909</v>
       </c>
     </row>
     <row r="45">
@@ -1252,19 +982,13 @@
         <v>16519903</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C45" t="n">
         <v>460.461538461538</v>
       </c>
       <c r="D45" t="n">
         <v>516.846153846154</v>
-      </c>
-      <c r="E45" t="n">
-        <v>21.9230769230769</v>
-      </c>
-      <c r="F45" t="n">
-        <v>19.9230769230769</v>
       </c>
     </row>
     <row r="46">
@@ -1272,19 +996,13 @@
         <v>16620301</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C46" t="n">
         <v>418.666666666667</v>
       </c>
       <c r="D46" t="n">
         <v>450.666666666667</v>
-      </c>
-      <c r="E46" t="n">
-        <v>16.6666666666667</v>
-      </c>
-      <c r="F46" t="n">
-        <v>16.3333333333333</v>
       </c>
     </row>
     <row r="47">
@@ -1292,19 +1010,13 @@
         <v>16620302</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C47" t="n">
         <v>427.428571428571</v>
       </c>
       <c r="D47" t="n">
         <v>460.857142857143</v>
-      </c>
-      <c r="E47" t="n">
-        <v>20.2857142857143</v>
-      </c>
-      <c r="F47" t="n">
-        <v>18.5714285714286</v>
       </c>
     </row>
     <row r="48">
@@ -1312,19 +1024,13 @@
         <v>16620303</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C48" t="n">
         <v>435.5</v>
       </c>
       <c r="D48" t="n">
         <v>494.5</v>
-      </c>
-      <c r="E48" t="n">
-        <v>24</v>
-      </c>
-      <c r="F48" t="n">
-        <v>23.75</v>
       </c>
     </row>
     <row r="49">
@@ -1332,19 +1038,13 @@
         <v>16620304</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C49" t="n">
         <v>451.857142857143</v>
       </c>
       <c r="D49" t="n">
         <v>496.714285714286</v>
-      </c>
-      <c r="E49" t="n">
-        <v>20.7142857142857</v>
-      </c>
-      <c r="F49" t="n">
-        <v>22.1428571428571</v>
       </c>
     </row>
     <row r="50">
@@ -1352,19 +1052,13 @@
         <v>16821101</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C50" t="n">
         <v>456.666666666667</v>
       </c>
       <c r="D50" t="n">
         <v>526.666666666667</v>
-      </c>
-      <c r="E50" t="n">
-        <v>23.6666666666667</v>
-      </c>
-      <c r="F50" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="51">
@@ -1372,19 +1066,13 @@
         <v>16821102</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C51" t="n">
         <v>441.333333333333</v>
       </c>
       <c r="D51" t="n">
         <v>487</v>
-      </c>
-      <c r="E51" t="n">
-        <v>21.3333333333333</v>
-      </c>
-      <c r="F51" t="n">
-        <v>19.7777777777778</v>
       </c>
     </row>
     <row r="52">
@@ -1392,19 +1080,13 @@
         <v>16821103</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C52" t="n">
         <v>445.333333333333</v>
       </c>
       <c r="D52" t="n">
         <v>494.333333333333</v>
-      </c>
-      <c r="E52" t="n">
-        <v>21</v>
-      </c>
-      <c r="F52" t="n">
-        <v>17.3333333333333</v>
       </c>
     </row>
     <row r="53">
@@ -1412,19 +1094,13 @@
         <v>16821104</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C53" t="n">
         <v>458.333333333333</v>
       </c>
       <c r="D53" t="n">
         <v>515</v>
-      </c>
-      <c r="E53" t="n">
-        <v>21.3333333333333</v>
-      </c>
-      <c r="F53" t="n">
-        <v>13.6666666666667</v>
       </c>
     </row>
     <row r="54">
@@ -1432,19 +1108,13 @@
         <v>16821105</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C54" t="n">
         <v>436.5</v>
       </c>
       <c r="D54" t="n">
         <v>526.2</v>
-      </c>
-      <c r="E54" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="F54" t="n">
-        <v>18.8</v>
       </c>
     </row>
     <row r="55">
@@ -1452,19 +1122,13 @@
         <v>16821401</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C55" t="n">
         <v>467.25</v>
       </c>
       <c r="D55" t="n">
         <v>563</v>
-      </c>
-      <c r="E55" t="n">
-        <v>22.75</v>
-      </c>
-      <c r="F55" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="56">
@@ -1472,19 +1136,13 @@
         <v>16821402</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C56" t="n">
         <v>458.153846153846</v>
       </c>
       <c r="D56" t="n">
         <v>524.923076923077</v>
-      </c>
-      <c r="E56" t="n">
-        <v>21.3076923076923</v>
-      </c>
-      <c r="F56" t="n">
-        <v>19.1538461538462</v>
       </c>
     </row>
     <row r="57">
@@ -1492,19 +1150,13 @@
         <v>16821403</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C57" t="n">
         <v>454.545454545455</v>
       </c>
       <c r="D57" t="n">
         <v>525</v>
-      </c>
-      <c r="E57" t="n">
-        <v>18.7272727272727</v>
-      </c>
-      <c r="F57" t="n">
-        <v>19.2727272727273</v>
       </c>
     </row>
     <row r="58">
@@ -1512,19 +1164,13 @@
         <v>16921901</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C58" t="n">
         <v>485.333333333333</v>
       </c>
       <c r="D58" t="n">
         <v>550.333333333333</v>
-      </c>
-      <c r="E58" t="n">
-        <v>25</v>
-      </c>
-      <c r="F58" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="59">
@@ -1532,19 +1178,13 @@
         <v>16921902</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C59" t="n">
         <v>478.125</v>
       </c>
       <c r="D59" t="n">
         <v>543</v>
-      </c>
-      <c r="E59" t="n">
-        <v>23</v>
-      </c>
-      <c r="F59" t="n">
-        <v>19.125</v>
       </c>
     </row>
     <row r="60">
@@ -1552,19 +1192,13 @@
         <v>16921903</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C60" t="n">
         <v>463.75</v>
       </c>
       <c r="D60" t="n">
         <v>516.75</v>
-      </c>
-      <c r="E60" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F60" t="n">
-        <v>19.75</v>
       </c>
     </row>
     <row r="61">
@@ -1572,19 +1206,13 @@
         <v>16922901</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C61" t="n">
         <v>487.727272727273</v>
       </c>
       <c r="D61" t="n">
         <v>553.545454545455</v>
-      </c>
-      <c r="E61" t="n">
-        <v>22.3636363636364</v>
-      </c>
-      <c r="F61" t="n">
-        <v>19.5454545454545</v>
       </c>
     </row>
     <row r="62">
@@ -1592,19 +1220,13 @@
         <v>16922902</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C62" t="n">
         <v>459.5</v>
       </c>
       <c r="D62" t="n">
         <v>501.5</v>
-      </c>
-      <c r="E62" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="F62" t="n">
-        <v>20.6</v>
       </c>
     </row>
     <row r="63">
@@ -1612,19 +1234,13 @@
         <v>16922903</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C63" t="n">
         <v>456.125</v>
       </c>
       <c r="D63" t="n">
         <v>507.625</v>
-      </c>
-      <c r="E63" t="n">
-        <v>21.25</v>
-      </c>
-      <c r="F63" t="n">
-        <v>19.5</v>
       </c>
     </row>
     <row r="64">
@@ -1632,19 +1248,13 @@
         <v>16922904</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C64" t="n">
         <v>458.111111111111</v>
       </c>
       <c r="D64" t="n">
         <v>518.111111111111</v>
-      </c>
-      <c r="E64" t="n">
-        <v>24.4444444444444</v>
-      </c>
-      <c r="F64" t="n">
-        <v>21.5555555555556</v>
       </c>
     </row>
     <row r="65">
@@ -1652,19 +1262,13 @@
         <v>16922905</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C65" t="n">
         <v>463.25</v>
       </c>
       <c r="D65" t="n">
         <v>500.25</v>
-      </c>
-      <c r="E65" t="n">
-        <v>19.25</v>
-      </c>
-      <c r="F65" t="n">
-        <v>18.625</v>
       </c>
     </row>
     <row r="66">
@@ -1672,19 +1276,13 @@
         <v>16922906</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C66" t="n">
         <v>465.833333333333</v>
       </c>
       <c r="D66" t="n">
         <v>520.5</v>
-      </c>
-      <c r="E66" t="n">
-        <v>22</v>
-      </c>
-      <c r="F66" t="n">
-        <v>20.5</v>
       </c>
     </row>
     <row r="67">
@@ -1692,19 +1290,13 @@
         <v>16922907</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C67" t="n">
         <v>453.411764705882</v>
       </c>
       <c r="D67" t="n">
         <v>514.411764705882</v>
-      </c>
-      <c r="E67" t="n">
-        <v>21.7647058823529</v>
-      </c>
-      <c r="F67" t="n">
-        <v>19.1764705882353</v>
       </c>
     </row>
     <row r="68">
@@ -1712,19 +1304,13 @@
         <v>16923101</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C68" t="n">
         <v>438.666666666667</v>
       </c>
       <c r="D68" t="n">
         <v>494.666666666667</v>
-      </c>
-      <c r="E68" t="n">
-        <v>22.6666666666667</v>
-      </c>
-      <c r="F68" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="69">
@@ -1732,19 +1318,13 @@
         <v>16923102</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C69" t="n">
         <v>443.25</v>
       </c>
       <c r="D69" t="n">
         <v>473</v>
-      </c>
-      <c r="E69" t="n">
-        <v>18.25</v>
-      </c>
-      <c r="F69" t="n">
-        <v>15.25</v>
       </c>
     </row>
     <row r="70">
@@ -1752,19 +1332,13 @@
         <v>16923103</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C70" t="n">
         <v>418.833333333333</v>
       </c>
       <c r="D70" t="n">
         <v>456.666666666667</v>
-      </c>
-      <c r="E70" t="n">
-        <v>18.8333333333333</v>
-      </c>
-      <c r="F70" t="n">
-        <v>18.3333333333333</v>
       </c>
     </row>
     <row r="71">
@@ -1772,19 +1346,13 @@
         <v>16928001</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C71" t="n">
         <v>444</v>
       </c>
       <c r="D71" t="n">
         <v>498.333333333333</v>
-      </c>
-      <c r="E71" t="n">
-        <v>17.8333333333333</v>
-      </c>
-      <c r="F71" t="n">
-        <v>16.6666666666667</v>
       </c>
     </row>
     <row r="72">
@@ -1792,19 +1360,13 @@
         <v>16928002</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C72" t="n">
         <v>461.071428571429</v>
       </c>
       <c r="D72" t="n">
         <v>494.5</v>
-      </c>
-      <c r="E72" t="n">
-        <v>18.7142857142857</v>
-      </c>
-      <c r="F72" t="n">
-        <v>17.7857142857143</v>
       </c>
     </row>
     <row r="73">
@@ -1812,19 +1374,13 @@
         <v>16928003</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C73" t="n">
         <v>462.3</v>
       </c>
       <c r="D73" t="n">
         <v>501.6</v>
-      </c>
-      <c r="E73" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="F73" t="n">
-        <v>18.9</v>
       </c>
     </row>
     <row r="74">
@@ -1832,19 +1388,13 @@
         <v>17029501</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C74" t="n">
         <v>475.111111111111</v>
       </c>
       <c r="D74" t="n">
         <v>541</v>
-      </c>
-      <c r="E74" t="n">
-        <v>22.8888888888889</v>
-      </c>
-      <c r="F74" t="n">
-        <v>18.4444444444444</v>
       </c>
     </row>
     <row r="75">
@@ -1852,19 +1402,13 @@
         <v>17029502</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C75" t="n">
         <v>452.2</v>
       </c>
       <c r="D75" t="n">
         <v>494.3</v>
-      </c>
-      <c r="E75" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="F75" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="76">
@@ -1872,19 +1416,13 @@
         <v>17029503</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C76" t="n">
         <v>428</v>
       </c>
       <c r="D76" t="n">
         <v>453.666666666667</v>
-      </c>
-      <c r="E76" t="n">
-        <v>17.3333333333333</v>
-      </c>
-      <c r="F76" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="77">
@@ -1892,19 +1430,13 @@
         <v>17029504</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C77" t="n">
         <v>438</v>
       </c>
       <c r="D77" t="n">
         <v>468.2</v>
-      </c>
-      <c r="E77" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="F77" t="n">
-        <v>17.4</v>
       </c>
     </row>
     <row r="78">
@@ -1912,19 +1444,13 @@
         <v>17331201</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C78" t="n">
         <v>500.875</v>
       </c>
       <c r="D78" t="n">
         <v>539.875</v>
-      </c>
-      <c r="E78" t="n">
-        <v>21.375</v>
-      </c>
-      <c r="F78" t="n">
-        <v>19.875</v>
       </c>
     </row>
     <row r="79">
@@ -1932,19 +1458,13 @@
         <v>17331202</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C79" t="n">
         <v>480.625</v>
       </c>
       <c r="D79" t="n">
         <v>490.875</v>
-      </c>
-      <c r="E79" t="n">
-        <v>21.625</v>
-      </c>
-      <c r="F79" t="n">
-        <v>18.625</v>
       </c>
     </row>
     <row r="80">
@@ -1952,19 +1472,13 @@
         <v>17331203</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C80" t="n">
         <v>490.4</v>
       </c>
       <c r="D80" t="n">
         <v>572.9</v>
-      </c>
-      <c r="E80" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="F80" t="n">
-        <v>22.6</v>
       </c>
     </row>
     <row r="81">
@@ -1972,19 +1486,13 @@
         <v>17632901</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C81" t="n">
         <v>471.4</v>
       </c>
       <c r="D81" t="n">
         <v>557.3</v>
-      </c>
-      <c r="E81" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="F81" t="n">
-        <v>20.5</v>
       </c>
     </row>
     <row r="82">
@@ -1992,19 +1500,13 @@
         <v>17632902</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C82" t="n">
         <v>447</v>
       </c>
       <c r="D82" t="n">
         <v>504.5</v>
-      </c>
-      <c r="E82" t="n">
-        <v>21.25</v>
-      </c>
-      <c r="F82" t="n">
-        <v>18.75</v>
       </c>
     </row>
     <row r="83">
@@ -2012,19 +1514,13 @@
         <v>17632903</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C83" t="n">
         <v>469</v>
       </c>
       <c r="D83" t="n">
         <v>568.2</v>
-      </c>
-      <c r="E83" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="F83" t="n">
-        <v>17.6</v>
       </c>
     </row>
     <row r="84">
@@ -2032,19 +1528,13 @@
         <v>17632904</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C84" t="n">
         <v>451.5</v>
       </c>
       <c r="D84" t="n">
         <v>472</v>
-      </c>
-      <c r="E84" t="n">
-        <v>17.25</v>
-      </c>
-      <c r="F84" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="85">
@@ -2052,19 +1542,13 @@
         <v>18034401</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C85" t="n">
         <v>448.090909090909</v>
       </c>
       <c r="D85" t="n">
         <v>484.818181818182</v>
-      </c>
-      <c r="E85" t="n">
-        <v>19.2727272727273</v>
-      </c>
-      <c r="F85" t="n">
-        <v>17.3636363636364</v>
       </c>
     </row>
     <row r="86">
@@ -2072,19 +1556,13 @@
         <v>18034402</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C86" t="n">
         <v>449.125</v>
       </c>
       <c r="D86" t="n">
         <v>485</v>
-      </c>
-      <c r="E86" t="n">
-        <v>16.25</v>
-      </c>
-      <c r="F86" t="n">
-        <v>17.75</v>
       </c>
     </row>
     <row r="87">
@@ -2092,19 +1570,13 @@
         <v>18034403</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C87" t="n">
         <v>438.625</v>
       </c>
       <c r="D87" t="n">
         <v>511</v>
-      </c>
-      <c r="E87" t="n">
-        <v>17</v>
-      </c>
-      <c r="F87" t="n">
-        <v>18.25</v>
       </c>
     </row>
     <row r="88">
@@ -2112,19 +1584,13 @@
         <v>18034404</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C88" t="n">
         <v>453</v>
       </c>
       <c r="D88" t="n">
         <v>508.272727272727</v>
-      </c>
-      <c r="E88" t="n">
-        <v>20.1818181818182</v>
-      </c>
-      <c r="F88" t="n">
-        <v>19.0909090909091</v>
       </c>
     </row>
     <row r="89">
@@ -2132,19 +1598,13 @@
         <v>18034405</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C89" t="n">
         <v>422.333333333333</v>
       </c>
       <c r="D89" t="n">
         <v>470.777777777778</v>
-      </c>
-      <c r="E89" t="n">
-        <v>20.6666666666667</v>
-      </c>
-      <c r="F89" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="90">
@@ -2152,19 +1612,13 @@
         <v>18937801</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C90" t="n">
         <v>430.571428571429</v>
       </c>
       <c r="D90" t="n">
         <v>479.714285714286</v>
-      </c>
-      <c r="E90" t="n">
-        <v>20.5714285714286</v>
-      </c>
-      <c r="F90" t="n">
-        <v>19.2857142857143</v>
       </c>
     </row>
     <row r="91">
@@ -2172,19 +1626,13 @@
         <v>18937802</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C91" t="n">
         <v>442.5</v>
       </c>
       <c r="D91" t="n">
         <v>470.166666666667</v>
-      </c>
-      <c r="E91" t="n">
-        <v>21.6666666666667</v>
-      </c>
-      <c r="F91" t="n">
-        <v>20.5</v>
       </c>
     </row>
     <row r="92">
@@ -2192,19 +1640,13 @@
         <v>18937803</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C92" t="n">
         <v>457.833333333333</v>
       </c>
       <c r="D92" t="n">
         <v>511.5</v>
-      </c>
-      <c r="E92" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="F92" t="n">
-        <v>24.1666666666667</v>
       </c>
     </row>
     <row r="93">
@@ -2212,19 +1654,13 @@
         <v>18937804</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C93" t="n">
         <v>426.333333333333</v>
       </c>
       <c r="D93" t="n">
         <v>473.333333333333</v>
-      </c>
-      <c r="E93" t="n">
-        <v>18.3333333333333</v>
-      </c>
-      <c r="F93" t="n">
-        <v>19.6666666666667</v>
       </c>
     </row>
     <row r="94">
@@ -2232,19 +1668,13 @@
         <v>18938201</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C94" t="n">
         <v>470.6</v>
       </c>
       <c r="D94" t="n">
         <v>496.6</v>
-      </c>
-      <c r="E94" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="F94" t="n">
-        <v>22.4</v>
       </c>
     </row>
     <row r="95">
@@ -2252,19 +1682,13 @@
         <v>18938202</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C95" t="n">
         <v>451.111111111111</v>
       </c>
       <c r="D95" t="n">
         <v>475.777777777778</v>
-      </c>
-      <c r="E95" t="n">
-        <v>18.6666666666667</v>
-      </c>
-      <c r="F95" t="n">
-        <v>16.7777777777778</v>
       </c>
     </row>
     <row r="96">
@@ -2272,19 +1696,13 @@
         <v>18938203</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C96" t="n">
         <v>468.2</v>
       </c>
       <c r="D96" t="n">
         <v>511.066666666667</v>
-      </c>
-      <c r="E96" t="n">
-        <v>21</v>
-      </c>
-      <c r="F96" t="n">
-        <v>21.4</v>
       </c>
     </row>
     <row r="97">
@@ -2292,19 +1710,13 @@
         <v>18938204</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C97" t="n">
         <v>457</v>
       </c>
       <c r="D97" t="n">
         <v>479.5</v>
-      </c>
-      <c r="E97" t="n">
-        <v>25</v>
-      </c>
-      <c r="F97" t="n">
-        <v>22.5</v>
       </c>
     </row>
     <row r="98">
@@ -2312,19 +1724,13 @@
         <v>18939601</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C98" t="n">
         <v>446</v>
       </c>
       <c r="D98" t="n">
         <v>513.428571428571</v>
-      </c>
-      <c r="E98" t="n">
-        <v>19.1428571428571</v>
-      </c>
-      <c r="F98" t="n">
-        <v>18.8571428571429</v>
       </c>
     </row>
     <row r="99">
@@ -2332,19 +1738,13 @@
         <v>18939602</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C99" t="n">
         <v>443.333333333333</v>
       </c>
       <c r="D99" t="n">
         <v>498.166666666667</v>
-      </c>
-      <c r="E99" t="n">
-        <v>21.1666666666667</v>
-      </c>
-      <c r="F99" t="n">
-        <v>20.8333333333333</v>
       </c>
     </row>
     <row r="100">
@@ -2352,19 +1752,13 @@
         <v>18939603</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C100" t="n">
         <v>423.125</v>
       </c>
       <c r="D100" t="n">
         <v>475.125</v>
-      </c>
-      <c r="E100" t="n">
-        <v>17</v>
-      </c>
-      <c r="F100" t="n">
-        <v>17.625</v>
       </c>
     </row>
     <row r="101">
@@ -2372,19 +1766,13 @@
         <v>19141101</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C101" t="n">
         <v>475.6</v>
       </c>
       <c r="D101" t="n">
         <v>524</v>
-      </c>
-      <c r="E101" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="F101" t="n">
-        <v>17.6</v>
       </c>
     </row>
     <row r="102">
@@ -2392,19 +1780,13 @@
         <v>19141102</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C102" t="n">
         <v>493.75</v>
       </c>
       <c r="D102" t="n">
         <v>522.25</v>
-      </c>
-      <c r="E102" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F102" t="n">
-        <v>17.75</v>
       </c>
     </row>
     <row r="103">
@@ -2412,19 +1794,13 @@
         <v>19141103</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C103" t="n">
         <v>458.333333333333</v>
       </c>
       <c r="D103" t="n">
         <v>491.166666666667</v>
-      </c>
-      <c r="E103" t="n">
-        <v>21.8333333333333</v>
-      </c>
-      <c r="F103" t="n">
-        <v>18.6666666666667</v>
       </c>
     </row>
     <row r="104">
@@ -2432,19 +1808,13 @@
         <v>19342201</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C104" t="n">
         <v>460.909090909091</v>
       </c>
       <c r="D104" t="n">
         <v>505.818181818182</v>
-      </c>
-      <c r="E104" t="n">
-        <v>20.4545454545455</v>
-      </c>
-      <c r="F104" t="n">
-        <v>20.6363636363636</v>
       </c>
     </row>
     <row r="105">
@@ -2452,19 +1822,13 @@
         <v>19342202</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C105" t="n">
         <v>462.428571428571</v>
       </c>
       <c r="D105" t="n">
         <v>515.714285714286</v>
-      </c>
-      <c r="E105" t="n">
-        <v>20.4285714285714</v>
-      </c>
-      <c r="F105" t="n">
-        <v>20.2857142857143</v>
       </c>
     </row>
     <row r="106">
@@ -2472,19 +1836,13 @@
         <v>19342203</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C106" t="n">
         <v>461.166666666667</v>
       </c>
       <c r="D106" t="n">
         <v>515.5</v>
-      </c>
-      <c r="E106" t="n">
-        <v>21.6666666666667</v>
-      </c>
-      <c r="F106" t="n">
-        <v>17.25</v>
       </c>
     </row>
     <row r="107">
@@ -2492,19 +1850,13 @@
         <v>19342301</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C107" t="n">
         <v>440.166666666667</v>
       </c>
       <c r="D107" t="n">
         <v>510.833333333333</v>
-      </c>
-      <c r="E107" t="n">
-        <v>17</v>
-      </c>
-      <c r="F107" t="n">
-        <v>15.8333333333333</v>
       </c>
     </row>
     <row r="108">
@@ -2512,19 +1864,13 @@
         <v>19342302</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C108" t="n">
         <v>446.666666666667</v>
       </c>
       <c r="D108" t="n">
         <v>574.166666666667</v>
-      </c>
-      <c r="E108" t="n">
-        <v>22.1666666666667</v>
-      </c>
-      <c r="F108" t="n">
-        <v>18.8333333333333</v>
       </c>
     </row>
     <row r="109">
@@ -2532,19 +1878,13 @@
         <v>19342303</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C109" t="n">
         <v>437.583333333333</v>
       </c>
       <c r="D109" t="n">
         <v>525.916666666667</v>
-      </c>
-      <c r="E109" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="F109" t="n">
-        <v>16.8333333333333</v>
       </c>
     </row>
     <row r="110">
@@ -2552,19 +1892,13 @@
         <v>19342304</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C110" t="n">
         <v>440.571428571429</v>
       </c>
       <c r="D110" t="n">
         <v>498.428571428571</v>
-      </c>
-      <c r="E110" t="n">
-        <v>19.4285714285714</v>
-      </c>
-      <c r="F110" t="n">
-        <v>16.2857142857143</v>
       </c>
     </row>
     <row r="111">
@@ -2572,19 +1906,13 @@
         <v>20144901</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C111" t="n">
         <v>479.666666666667</v>
       </c>
       <c r="D111" t="n">
         <v>534.666666666667</v>
-      </c>
-      <c r="E111" t="n">
-        <v>21.8333333333333</v>
-      </c>
-      <c r="F111" t="n">
-        <v>21.3333333333333</v>
       </c>
     </row>
     <row r="112">
@@ -2592,19 +1920,13 @@
         <v>20144902</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C112" t="n">
         <v>435.333333333333</v>
       </c>
       <c r="D112" t="n">
         <v>512.111111111111</v>
-      </c>
-      <c r="E112" t="n">
-        <v>20.7777777777778</v>
-      </c>
-      <c r="F112" t="n">
-        <v>21.3333333333333</v>
       </c>
     </row>
     <row r="113">
@@ -2612,19 +1934,13 @@
         <v>20144903</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C113" t="n">
         <v>436</v>
       </c>
       <c r="D113" t="n">
         <v>465</v>
-      </c>
-      <c r="E113" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="F113" t="n">
-        <v>17.6</v>
       </c>
     </row>
     <row r="114">
@@ -2632,19 +1948,13 @@
         <v>20144904</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C114" t="n">
         <v>471.555555555556</v>
       </c>
       <c r="D114" t="n">
         <v>536.444444444444</v>
-      </c>
-      <c r="E114" t="n">
-        <v>24.2222222222222</v>
-      </c>
-      <c r="F114" t="n">
-        <v>19.5555555555556</v>
       </c>
     </row>
     <row r="115">
@@ -2652,19 +1962,13 @@
         <v>20144905</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C115" t="n">
         <v>489.428571428571</v>
       </c>
       <c r="D115" t="n">
         <v>528.285714285714</v>
-      </c>
-      <c r="E115" t="n">
-        <v>21.5714285714286</v>
-      </c>
-      <c r="F115" t="n">
-        <v>17.2857142857143</v>
       </c>
     </row>
     <row r="116">
@@ -2672,19 +1976,13 @@
         <v>20144906</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C116" t="n">
         <v>468.555555555556</v>
       </c>
       <c r="D116" t="n">
         <v>523.666666666667</v>
-      </c>
-      <c r="E116" t="n">
-        <v>22.1111111111111</v>
-      </c>
-      <c r="F116" t="n">
-        <v>18.5555555555556</v>
       </c>
     </row>
     <row r="117">
@@ -2692,19 +1990,13 @@
         <v>20345201</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C117" t="n">
         <v>458.285714285714</v>
       </c>
       <c r="D117" t="n">
         <v>488.142857142857</v>
-      </c>
-      <c r="E117" t="n">
-        <v>23.4285714285714</v>
-      </c>
-      <c r="F117" t="n">
-        <v>20.8571428571429</v>
       </c>
     </row>
     <row r="118">
@@ -2712,19 +2004,13 @@
         <v>20345202</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C118" t="n">
         <v>463.9</v>
       </c>
       <c r="D118" t="n">
         <v>495.9</v>
-      </c>
-      <c r="E118" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F118" t="n">
-        <v>19.1</v>
       </c>
     </row>
     <row r="119">
@@ -2732,19 +2018,13 @@
         <v>20345203</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C119" t="n">
         <v>492.166666666667</v>
       </c>
       <c r="D119" t="n">
         <v>510.666666666667</v>
-      </c>
-      <c r="E119" t="n">
-        <v>23</v>
-      </c>
-      <c r="F119" t="n">
-        <v>18.1666666666667</v>
       </c>
     </row>
     <row r="120">
@@ -2752,19 +2032,13 @@
         <v>20345204</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C120" t="n">
         <v>437.428571428571</v>
       </c>
       <c r="D120" t="n">
         <v>454.285714285714</v>
-      </c>
-      <c r="E120" t="n">
-        <v>19.4285714285714</v>
-      </c>
-      <c r="F120" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="121">
@@ -2772,19 +2046,13 @@
         <v>20345205</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C121" t="n">
         <v>455.545454545455</v>
       </c>
       <c r="D121" t="n">
         <v>515.727272727273</v>
-      </c>
-      <c r="E121" t="n">
-        <v>22.8181818181818</v>
-      </c>
-      <c r="F121" t="n">
-        <v>20.8181818181818</v>
       </c>
     </row>
     <row r="122">
@@ -2792,19 +2060,13 @@
         <v>20345701</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C122" t="n">
         <v>474.142857142857</v>
       </c>
       <c r="D122" t="n">
         <v>519.857142857143</v>
-      </c>
-      <c r="E122" t="n">
-        <v>22.8571428571429</v>
-      </c>
-      <c r="F122" t="n">
-        <v>17.8571428571429</v>
       </c>
     </row>
     <row r="123">
@@ -2812,19 +2074,13 @@
         <v>20345702</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C123" t="n">
         <v>471.2</v>
       </c>
       <c r="D123" t="n">
         <v>494.3</v>
-      </c>
-      <c r="E123" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="F123" t="n">
-        <v>19.6</v>
       </c>
     </row>
     <row r="124">
@@ -2832,19 +2088,13 @@
         <v>20345703</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C124" t="n">
         <v>469.6</v>
       </c>
       <c r="D124" t="n">
         <v>510</v>
-      </c>
-      <c r="E124" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F124" t="n">
-        <v>18.2</v>
       </c>
     </row>
     <row r="125">
@@ -2852,19 +2102,13 @@
         <v>20548801</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C125" t="n">
         <v>444.666666666667</v>
       </c>
       <c r="D125" t="n">
         <v>481.166666666667</v>
-      </c>
-      <c r="E125" t="n">
-        <v>21</v>
-      </c>
-      <c r="F125" t="n">
-        <v>20.6666666666667</v>
       </c>
     </row>
     <row r="126">
@@ -2872,19 +2116,13 @@
         <v>20548802</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C126" t="n">
         <v>450.6</v>
       </c>
       <c r="D126" t="n">
         <v>516.4</v>
-      </c>
-      <c r="E126" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="F126" t="n">
-        <v>20.7</v>
       </c>
     </row>
     <row r="127">
@@ -2892,19 +2130,13 @@
         <v>20548803</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C127" t="n">
         <v>433.666666666667</v>
       </c>
       <c r="D127" t="n">
         <v>447.333333333333</v>
-      </c>
-      <c r="E127" t="n">
-        <v>21.6666666666667</v>
-      </c>
-      <c r="F127" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="128">
@@ -2912,19 +2144,13 @@
         <v>20548901</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C128" t="n">
         <v>535</v>
       </c>
       <c r="D128" t="n">
         <v>561.5</v>
-      </c>
-      <c r="E128" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="F128" t="n">
-        <v>30.5</v>
       </c>
     </row>
     <row r="129">
@@ -2932,19 +2158,13 @@
         <v>20548902</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C129" t="n">
         <v>447.2</v>
       </c>
       <c r="D129" t="n">
         <v>469.2</v>
-      </c>
-      <c r="E129" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="F129" t="n">
-        <v>20.4</v>
       </c>
     </row>
     <row r="130">
@@ -2952,19 +2172,13 @@
         <v>20548903</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C130" t="n">
         <v>459.25</v>
       </c>
       <c r="D130" t="n">
         <v>510.75</v>
-      </c>
-      <c r="E130" t="n">
-        <v>22.375</v>
-      </c>
-      <c r="F130" t="n">
-        <v>23.125</v>
       </c>
     </row>
     <row r="131">
@@ -2972,19 +2186,13 @@
         <v>20548904</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C131" t="n">
         <v>463.666666666667</v>
       </c>
       <c r="D131" t="n">
         <v>499.333333333333</v>
-      </c>
-      <c r="E131" t="n">
-        <v>21.6666666666667</v>
-      </c>
-      <c r="F131" t="n">
-        <v>26.6666666666667</v>
       </c>
     </row>
     <row r="132">
@@ -2992,19 +2200,13 @@
         <v>20549001</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C132" t="n">
         <v>418</v>
       </c>
       <c r="D132" t="n">
         <v>442</v>
-      </c>
-      <c r="E132" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F132" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="133">
@@ -3012,19 +2214,13 @@
         <v>20549002</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C133" t="n">
         <v>413.25</v>
       </c>
       <c r="D133" t="n">
         <v>431.5</v>
-      </c>
-      <c r="E133" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="F133" t="n">
-        <v>18.75</v>
       </c>
     </row>
     <row r="134">
@@ -3032,19 +2228,13 @@
         <v>20549003</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C134" t="n">
         <v>418.166666666667</v>
       </c>
       <c r="D134" t="n">
         <v>459.5</v>
-      </c>
-      <c r="E134" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="F134" t="n">
-        <v>18.1666666666667</v>
       </c>
     </row>
     <row r="135">
@@ -3052,19 +2242,13 @@
         <v>20549101</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C135" t="n">
         <v>477.166666666667</v>
       </c>
       <c r="D135" t="n">
         <v>553.666666666667</v>
-      </c>
-      <c r="E135" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="F135" t="n">
-        <v>26.3333333333333</v>
       </c>
     </row>
     <row r="136">
@@ -3072,19 +2256,13 @@
         <v>20549102</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C136" t="n">
         <v>444.6</v>
       </c>
       <c r="D136" t="n">
         <v>510.6</v>
-      </c>
-      <c r="E136" t="n">
-        <v>23</v>
-      </c>
-      <c r="F136" t="n">
-        <v>21.2</v>
       </c>
     </row>
     <row r="137">
@@ -3092,19 +2270,13 @@
         <v>20549103</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C137" t="n">
         <v>441.307692307692</v>
       </c>
       <c r="D137" t="n">
         <v>497.461538461538</v>
-      </c>
-      <c r="E137" t="n">
-        <v>22.5384615384615</v>
-      </c>
-      <c r="F137" t="n">
-        <v>21.8461538461538</v>
       </c>
     </row>
     <row r="138">
@@ -3112,19 +2284,13 @@
         <v>20549104</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C138" t="n">
         <v>438.25</v>
       </c>
       <c r="D138" t="n">
         <v>486.625</v>
-      </c>
-      <c r="E138" t="n">
-        <v>20.75</v>
-      </c>
-      <c r="F138" t="n">
-        <v>20.5</v>
       </c>
     </row>
     <row r="139">
@@ -3132,19 +2298,13 @@
         <v>20549201</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C139" t="n">
         <v>434</v>
       </c>
       <c r="D139" t="n">
         <v>454</v>
-      </c>
-      <c r="E139" t="n">
-        <v>15</v>
-      </c>
-      <c r="F139" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="140">
@@ -3152,19 +2312,13 @@
         <v>20549202</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C140" t="n">
         <v>499.5</v>
       </c>
       <c r="D140" t="n">
         <v>553.25</v>
-      </c>
-      <c r="E140" t="n">
-        <v>19</v>
-      </c>
-      <c r="F140" t="n">
-        <v>16.75</v>
       </c>
     </row>
     <row r="141">
@@ -3172,19 +2326,13 @@
         <v>20549203</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C141" t="n">
         <v>436.6</v>
       </c>
       <c r="D141" t="n">
         <v>539.2</v>
-      </c>
-      <c r="E141" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F141" t="n">
-        <v>17.2</v>
       </c>
     </row>
     <row r="142">
@@ -3192,19 +2340,13 @@
         <v>20549204</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C142" t="n">
         <v>459.5</v>
       </c>
       <c r="D142" t="n">
         <v>517.5</v>
-      </c>
-      <c r="E142" t="n">
-        <v>16.375</v>
-      </c>
-      <c r="F142" t="n">
-        <v>16.5</v>
       </c>
     </row>
     <row r="143">
@@ -3212,19 +2354,13 @@
         <v>20850101</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C143" t="n">
         <v>462.8</v>
       </c>
       <c r="D143" t="n">
         <v>521.3</v>
-      </c>
-      <c r="E143" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="F143" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="144">
@@ -3232,19 +2368,13 @@
         <v>20850102</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C144" t="n">
         <v>441.5</v>
       </c>
       <c r="D144" t="n">
         <v>495.9</v>
-      </c>
-      <c r="E144" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="F144" t="n">
-        <v>20.5</v>
       </c>
     </row>
     <row r="145">
@@ -3252,19 +2382,13 @@
         <v>20850103</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C145" t="n">
         <v>446</v>
       </c>
       <c r="D145" t="n">
         <v>503</v>
-      </c>
-      <c r="E145" t="n">
-        <v>24.6666666666667</v>
-      </c>
-      <c r="F145" t="n">
-        <v>19.6666666666667</v>
       </c>
     </row>
     <row r="146">
@@ -3272,19 +2396,13 @@
         <v>20850104</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C146" t="n">
         <v>441.2</v>
       </c>
       <c r="D146" t="n">
         <v>518.4</v>
-      </c>
-      <c r="E146" t="n">
-        <v>22</v>
-      </c>
-      <c r="F146" t="n">
-        <v>20.2</v>
       </c>
     </row>
     <row r="147">
@@ -3292,19 +2410,13 @@
         <v>20850301</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C147" t="n">
         <v>411.333333333333</v>
       </c>
       <c r="D147" t="n">
         <v>472.444444444444</v>
-      </c>
-      <c r="E147" t="n">
-        <v>21.1111111111111</v>
-      </c>
-      <c r="F147" t="n">
-        <v>19.5555555555556</v>
       </c>
     </row>
     <row r="148">
@@ -3312,19 +2424,13 @@
         <v>20850302</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C148" t="n">
         <v>435.857142857143</v>
       </c>
       <c r="D148" t="n">
         <v>500.571428571429</v>
-      </c>
-      <c r="E148" t="n">
-        <v>20.1428571428571</v>
-      </c>
-      <c r="F148" t="n">
-        <v>20.2857142857143</v>
       </c>
     </row>
     <row r="149">
@@ -3332,19 +2438,13 @@
         <v>20850303</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C149" t="n">
         <v>416.6</v>
       </c>
       <c r="D149" t="n">
         <v>482.2</v>
-      </c>
-      <c r="E149" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="F149" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="150">
@@ -3352,19 +2452,13 @@
         <v>20951001</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C150" t="n">
         <v>432.8</v>
       </c>
       <c r="D150" t="n">
         <v>463.8</v>
-      </c>
-      <c r="E150" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="F150" t="n">
-        <v>19.8</v>
       </c>
     </row>
     <row r="151">
@@ -3372,19 +2466,13 @@
         <v>20951002</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C151" t="n">
         <v>439.923076923077</v>
       </c>
       <c r="D151" t="n">
         <v>482.230769230769</v>
-      </c>
-      <c r="E151" t="n">
-        <v>22.1538461538462</v>
-      </c>
-      <c r="F151" t="n">
-        <v>18.3846153846154</v>
       </c>
     </row>
     <row r="152">
@@ -3392,19 +2480,13 @@
         <v>20951003</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C152" t="n">
         <v>467.166666666667</v>
       </c>
       <c r="D152" t="n">
         <v>491.333333333333</v>
-      </c>
-      <c r="E152" t="n">
-        <v>16.6666666666667</v>
-      </c>
-      <c r="F152" t="n">
-        <v>16.1666666666667</v>
       </c>
     </row>
     <row r="153">
@@ -3412,19 +2494,13 @@
         <v>20951004</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C153" t="n">
         <v>439.857142857143</v>
       </c>
       <c r="D153" t="n">
         <v>472</v>
-      </c>
-      <c r="E153" t="n">
-        <v>20.2857142857143</v>
-      </c>
-      <c r="F153" t="n">
-        <v>16.1428571428571</v>
       </c>
     </row>
     <row r="154">
@@ -3432,19 +2508,13 @@
         <v>20951005</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C154" t="n">
         <v>454</v>
       </c>
       <c r="D154" t="n">
         <v>516</v>
-      </c>
-      <c r="E154" t="n">
-        <v>19.6666666666667</v>
-      </c>
-      <c r="F154" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="155">
@@ -3452,19 +2522,13 @@
         <v>21252202</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C155" t="n">
         <v>431</v>
       </c>
       <c r="D155" t="n">
         <v>509.833333333333</v>
-      </c>
-      <c r="E155" t="n">
-        <v>20.1666666666667</v>
-      </c>
-      <c r="F155" t="n">
-        <v>17.8333333333333</v>
       </c>
     </row>
     <row r="156">
@@ -3472,19 +2536,13 @@
         <v>21252203</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C156" t="n">
         <v>449.833333333333</v>
       </c>
       <c r="D156" t="n">
         <v>526</v>
-      </c>
-      <c r="E156" t="n">
-        <v>20.3333333333333</v>
-      </c>
-      <c r="F156" t="n">
-        <v>17.8333333333333</v>
       </c>
     </row>
     <row r="157">
@@ -3492,19 +2550,13 @@
         <v>21252204</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C157" t="n">
         <v>465</v>
       </c>
       <c r="D157" t="n">
         <v>555.6</v>
-      </c>
-      <c r="E157" t="n">
-        <v>20</v>
-      </c>
-      <c r="F157" t="n">
-        <v>18.8</v>
       </c>
     </row>
     <row r="158">
@@ -3512,19 +2564,13 @@
         <v>21252205</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C158" t="n">
         <v>443.727272727273</v>
       </c>
       <c r="D158" t="n">
         <v>506.818181818182</v>
-      </c>
-      <c r="E158" t="n">
-        <v>19.3636363636364</v>
-      </c>
-      <c r="F158" t="n">
-        <v>16.7272727272727</v>
       </c>
     </row>
     <row r="159">
@@ -3532,19 +2578,13 @@
         <v>21553301</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C159" t="n">
         <v>444.777777777778</v>
       </c>
       <c r="D159" t="n">
         <v>516.555555555556</v>
-      </c>
-      <c r="E159" t="n">
-        <v>20.4444444444444</v>
-      </c>
-      <c r="F159" t="n">
-        <v>18.3333333333333</v>
       </c>
     </row>
     <row r="160">
@@ -3552,19 +2592,13 @@
         <v>21553302</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C160" t="n">
         <v>463.777777777778</v>
       </c>
       <c r="D160" t="n">
         <v>539</v>
-      </c>
-      <c r="E160" t="n">
-        <v>21.3333333333333</v>
-      </c>
-      <c r="F160" t="n">
-        <v>19.4444444444444</v>
       </c>
     </row>
     <row r="161">
@@ -3572,19 +2606,13 @@
         <v>21553303</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C161" t="n">
         <v>443.5</v>
       </c>
       <c r="D161" t="n">
         <v>491.5</v>
-      </c>
-      <c r="E161" t="n">
-        <v>21.75</v>
-      </c>
-      <c r="F161" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="162">
@@ -3592,19 +2620,13 @@
         <v>21553304</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C162" t="n">
         <v>470.636363636364</v>
       </c>
       <c r="D162" t="n">
         <v>562.727272727273</v>
-      </c>
-      <c r="E162" t="n">
-        <v>23.5454545454545</v>
-      </c>
-      <c r="F162" t="n">
-        <v>21.1818181818182</v>
       </c>
     </row>
     <row r="163">
@@ -3612,19 +2634,13 @@
         <v>21553305</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C163" t="n">
         <v>480.166666666667</v>
       </c>
       <c r="D163" t="n">
         <v>545.666666666667</v>
-      </c>
-      <c r="E163" t="n">
-        <v>23.3333333333333</v>
-      </c>
-      <c r="F163" t="n">
-        <v>19.5</v>
       </c>
     </row>
     <row r="164">
@@ -3632,19 +2648,13 @@
         <v>21553306</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C164" t="n">
         <v>453.5</v>
       </c>
       <c r="D164" t="n">
         <v>525</v>
-      </c>
-      <c r="E164" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="F164" t="n">
-        <v>18.8</v>
       </c>
     </row>
     <row r="165">
@@ -3652,19 +2662,13 @@
         <v>21653601</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C165" t="n">
         <v>450.555555555556</v>
       </c>
       <c r="D165" t="n">
         <v>528</v>
-      </c>
-      <c r="E165" t="n">
-        <v>21.6666666666667</v>
-      </c>
-      <c r="F165" t="n">
-        <v>18.6666666666667</v>
       </c>
     </row>
     <row r="166">
@@ -3672,19 +2676,13 @@
         <v>21653602</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C166" t="n">
         <v>455.333333333333</v>
       </c>
       <c r="D166" t="n">
         <v>520.333333333333</v>
-      </c>
-      <c r="E166" t="n">
-        <v>20.6666666666667</v>
-      </c>
-      <c r="F166" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="167">
@@ -3692,19 +2690,13 @@
         <v>21653603</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C167" t="n">
         <v>426.2</v>
       </c>
       <c r="D167" t="n">
         <v>497.6</v>
-      </c>
-      <c r="E167" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="F167" t="n">
-        <v>17.4</v>
       </c>
     </row>
     <row r="168">
@@ -3712,19 +2704,13 @@
         <v>21653604</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C168" t="n">
         <v>438.142857142857</v>
       </c>
       <c r="D168" t="n">
         <v>509</v>
-      </c>
-      <c r="E168" t="n">
-        <v>19.1428571428571</v>
-      </c>
-      <c r="F168" t="n">
-        <v>19.7142857142857</v>
       </c>
     </row>
     <row r="169">
@@ -3732,19 +2718,13 @@
         <v>21653605</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C169" t="n">
         <v>437.363636363636</v>
       </c>
       <c r="D169" t="n">
         <v>494.727272727273</v>
-      </c>
-      <c r="E169" t="n">
-        <v>21.1818181818182</v>
-      </c>
-      <c r="F169" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="170">
@@ -3752,19 +2732,13 @@
         <v>21856201</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C170" t="n">
         <v>467.333333333333</v>
       </c>
       <c r="D170" t="n">
         <v>542.166666666667</v>
-      </c>
-      <c r="E170" t="n">
-        <v>18.1666666666667</v>
-      </c>
-      <c r="F170" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="171">
@@ -3772,19 +2746,13 @@
         <v>21856202</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C171" t="n">
         <v>456.272727272727</v>
       </c>
       <c r="D171" t="n">
         <v>499.272727272727</v>
-      </c>
-      <c r="E171" t="n">
-        <v>21.6363636363636</v>
-      </c>
-      <c r="F171" t="n">
-        <v>19.1818181818182</v>
       </c>
     </row>
     <row r="172">
@@ -3792,19 +2760,13 @@
         <v>21856203</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C172" t="n">
         <v>453.666666666667</v>
       </c>
       <c r="D172" t="n">
         <v>484</v>
-      </c>
-      <c r="E172" t="n">
-        <v>18.3333333333333</v>
-      </c>
-      <c r="F172" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="173">
@@ -3812,19 +2774,13 @@
         <v>21856204</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C173" t="n">
         <v>443.615384615385</v>
       </c>
       <c r="D173" t="n">
         <v>511.307692307692</v>
-      </c>
-      <c r="E173" t="n">
-        <v>17.3846153846154</v>
-      </c>
-      <c r="F173" t="n">
-        <v>16.9230769230769</v>
       </c>
     </row>
     <row r="174">
@@ -3832,19 +2788,13 @@
         <v>22157101</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C174" t="n">
         <v>434.833333333333</v>
       </c>
       <c r="D174" t="n">
         <v>453.666666666667</v>
-      </c>
-      <c r="E174" t="n">
-        <v>23.3333333333333</v>
-      </c>
-      <c r="F174" t="n">
-        <v>19.3333333333333</v>
       </c>
     </row>
     <row r="175">
@@ -3852,19 +2802,13 @@
         <v>22157102</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C175" t="n">
         <v>417.25</v>
       </c>
       <c r="D175" t="n">
         <v>427</v>
-      </c>
-      <c r="E175" t="n">
-        <v>20</v>
-      </c>
-      <c r="F175" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="176">
@@ -3872,19 +2816,13 @@
         <v>22157103</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C176" t="n">
         <v>415.5</v>
       </c>
       <c r="D176" t="n">
         <v>467.75</v>
-      </c>
-      <c r="E176" t="n">
-        <v>20</v>
-      </c>
-      <c r="F176" t="n">
-        <v>17.75</v>
       </c>
     </row>
     <row r="177">
@@ -3892,19 +2830,13 @@
         <v>22157104</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C177" t="n">
         <v>433.25</v>
       </c>
       <c r="D177" t="n">
         <v>493</v>
-      </c>
-      <c r="E177" t="n">
-        <v>23</v>
-      </c>
-      <c r="F177" t="n">
-        <v>17.25</v>
       </c>
     </row>
     <row r="178">
@@ -3912,19 +2844,13 @@
         <v>22157105</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C178" t="n">
         <v>421.4</v>
       </c>
       <c r="D178" t="n">
         <v>415.2</v>
-      </c>
-      <c r="E178" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="F178" t="n">
-        <v>18.2</v>
       </c>
     </row>
     <row r="179">
@@ -3932,19 +2858,13 @@
         <v>22157401</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C179" t="n">
         <v>432</v>
       </c>
       <c r="D179" t="n">
         <v>479.6</v>
-      </c>
-      <c r="E179" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="F179" t="n">
-        <v>16.4</v>
       </c>
     </row>
     <row r="180">
@@ -3952,19 +2872,13 @@
         <v>22157402</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C180" t="n">
         <v>441.555555555556</v>
       </c>
       <c r="D180" t="n">
         <v>484.444444444444</v>
-      </c>
-      <c r="E180" t="n">
-        <v>15.8888888888889</v>
-      </c>
-      <c r="F180" t="n">
-        <v>15.7777777777778</v>
       </c>
     </row>
     <row r="181">
@@ -3972,19 +2886,13 @@
         <v>22157403</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C181" t="n">
         <v>424.5</v>
       </c>
       <c r="D181" t="n">
         <v>485.833333333333</v>
-      </c>
-      <c r="E181" t="n">
-        <v>19</v>
-      </c>
-      <c r="F181" t="n">
-        <v>18.1666666666667</v>
       </c>
     </row>
     <row r="182">
@@ -3992,19 +2900,13 @@
         <v>22157404</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C182" t="n">
         <v>431.5</v>
       </c>
       <c r="D182" t="n">
         <v>476.25</v>
-      </c>
-      <c r="E182" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="F182" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="183">
@@ -4012,19 +2914,13 @@
         <v>22558501</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C183" t="n">
         <v>432.833333333333</v>
       </c>
       <c r="D183" t="n">
         <v>493.833333333333</v>
-      </c>
-      <c r="E183" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="F183" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="184">
@@ -4032,19 +2928,13 @@
         <v>22558502</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C184" t="n">
         <v>454.333333333333</v>
       </c>
       <c r="D184" t="n">
         <v>485.666666666667</v>
-      </c>
-      <c r="E184" t="n">
-        <v>17.3333333333333</v>
-      </c>
-      <c r="F184" t="n">
-        <v>16.3333333333333</v>
       </c>
     </row>
     <row r="185">
@@ -4052,19 +2942,13 @@
         <v>22558503</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C185" t="n">
         <v>430.285714285714</v>
       </c>
       <c r="D185" t="n">
         <v>512.142857142857</v>
-      </c>
-      <c r="E185" t="n">
-        <v>20.1428571428571</v>
-      </c>
-      <c r="F185" t="n">
-        <v>17.8571428571429</v>
       </c>
     </row>
     <row r="186">
@@ -4072,19 +2956,13 @@
         <v>22558504</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C186" t="n">
         <v>443.083333333333</v>
       </c>
       <c r="D186" t="n">
         <v>498.083333333333</v>
-      </c>
-      <c r="E186" t="n">
-        <v>20.9166666666667</v>
-      </c>
-      <c r="F186" t="n">
-        <v>18.5833333333333</v>
       </c>
     </row>
     <row r="187">
@@ -4092,19 +2970,13 @@
         <v>22860601</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C187" t="n">
         <v>463</v>
       </c>
       <c r="D187" t="n">
         <v>537.5</v>
-      </c>
-      <c r="E187" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F187" t="n">
-        <v>19.6666666666667</v>
       </c>
     </row>
     <row r="188">
@@ -4112,19 +2984,13 @@
         <v>22860602</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C188" t="n">
         <v>426.571428571429</v>
       </c>
       <c r="D188" t="n">
         <v>471.285714285714</v>
-      </c>
-      <c r="E188" t="n">
-        <v>20.4285714285714</v>
-      </c>
-      <c r="F188" t="n">
-        <v>19.2857142857143</v>
       </c>
     </row>
     <row r="189">
@@ -4132,19 +2998,13 @@
         <v>22860603</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C189" t="n">
         <v>440</v>
       </c>
       <c r="D189" t="n">
         <v>518</v>
-      </c>
-      <c r="E189" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="F189" t="n">
-        <v>20.5</v>
       </c>
     </row>
     <row r="190">
@@ -4152,19 +3012,13 @@
         <v>22860604</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C190" t="n">
         <v>476.333333333333</v>
       </c>
       <c r="D190" t="n">
         <v>579.888888888889</v>
-      </c>
-      <c r="E190" t="n">
-        <v>22.2222222222222</v>
-      </c>
-      <c r="F190" t="n">
-        <v>22.7777777777778</v>
       </c>
     </row>
     <row r="191">
@@ -4172,19 +3026,13 @@
         <v>23061201</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C191" t="n">
         <v>454.571428571429</v>
       </c>
       <c r="D191" t="n">
         <v>546.857142857143</v>
-      </c>
-      <c r="E191" t="n">
-        <v>20.1428571428571</v>
-      </c>
-      <c r="F191" t="n">
-        <v>17.5714285714286</v>
       </c>
     </row>
     <row r="192">
@@ -4192,19 +3040,13 @@
         <v>23061202</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C192" t="n">
         <v>479.4</v>
       </c>
       <c r="D192" t="n">
         <v>558.4</v>
-      </c>
-      <c r="E192" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F192" t="n">
-        <v>19.6</v>
       </c>
     </row>
     <row r="193">
@@ -4212,19 +3054,13 @@
         <v>23061203</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C193" t="n">
         <v>455.375</v>
       </c>
       <c r="D193" t="n">
         <v>526</v>
-      </c>
-      <c r="E193" t="n">
-        <v>18.25</v>
-      </c>
-      <c r="F193" t="n">
-        <v>14.75</v>
       </c>
     </row>
     <row r="194">
@@ -4232,19 +3068,13 @@
         <v>23161601</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C194" t="n">
         <v>446.4</v>
       </c>
       <c r="D194" t="n">
         <v>516.1</v>
-      </c>
-      <c r="E194" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F194" t="n">
-        <v>19.7</v>
       </c>
     </row>
     <row r="195">
@@ -4252,19 +3082,13 @@
         <v>23161602</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C195" t="n">
         <v>440.666666666667</v>
       </c>
       <c r="D195" t="n">
         <v>551.666666666667</v>
-      </c>
-      <c r="E195" t="n">
-        <v>18.3333333333333</v>
-      </c>
-      <c r="F195" t="n">
-        <v>19.5</v>
       </c>
     </row>
     <row r="196">
@@ -4272,19 +3096,13 @@
         <v>23161603</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C196" t="n">
         <v>434</v>
       </c>
       <c r="D196" t="n">
         <v>513.5</v>
-      </c>
-      <c r="E196" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="F196" t="n">
-        <v>17.75</v>
       </c>
     </row>
     <row r="197">
@@ -4292,19 +3110,13 @@
         <v>23462801</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C197" t="n">
         <v>461.166666666667</v>
       </c>
       <c r="D197" t="n">
         <v>527.5</v>
-      </c>
-      <c r="E197" t="n">
-        <v>25.8333333333333</v>
-      </c>
-      <c r="F197" t="n">
-        <v>22.5</v>
       </c>
     </row>
     <row r="198">
@@ -4312,19 +3124,13 @@
         <v>23462802</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C198" t="n">
         <v>469.454545454545</v>
       </c>
       <c r="D198" t="n">
         <v>494.818181818182</v>
-      </c>
-      <c r="E198" t="n">
-        <v>22.8181818181818</v>
-      </c>
-      <c r="F198" t="n">
-        <v>20.3636363636364</v>
       </c>
     </row>
     <row r="199">
@@ -4332,19 +3138,13 @@
         <v>23462803</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C199" t="n">
         <v>442.714285714286</v>
       </c>
       <c r="D199" t="n">
         <v>507.714285714286</v>
-      </c>
-      <c r="E199" t="n">
-        <v>21.8571428571429</v>
-      </c>
-      <c r="F199" t="n">
-        <v>19.7142857142857</v>
       </c>
     </row>
     <row r="200">
@@ -4352,19 +3152,13 @@
         <v>23462804</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C200" t="n">
         <v>449</v>
       </c>
       <c r="D200" t="n">
         <v>526.75</v>
-      </c>
-      <c r="E200" t="n">
-        <v>19</v>
-      </c>
-      <c r="F200" t="n">
-        <v>17.625</v>
       </c>
     </row>
     <row r="201">
@@ -4372,19 +3166,13 @@
         <v>23462805</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C201" t="n">
         <v>441.666666666667</v>
       </c>
       <c r="D201" t="n">
         <v>498.111111111111</v>
-      </c>
-      <c r="E201" t="n">
-        <v>19.6666666666667</v>
-      </c>
-      <c r="F201" t="n">
-        <v>17.6666666666667</v>
       </c>
     </row>
     <row r="202">
@@ -4392,19 +3180,13 @@
         <v>24469702</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C202" t="n">
         <v>424</v>
       </c>
       <c r="D202" t="n">
         <v>452.25</v>
-      </c>
-      <c r="E202" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="F202" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="203">
@@ -4412,19 +3194,13 @@
         <v>24469703</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C203" t="n">
         <v>427.714285714286</v>
       </c>
       <c r="D203" t="n">
         <v>479</v>
-      </c>
-      <c r="E203" t="n">
-        <v>15.4285714285714</v>
-      </c>
-      <c r="F203" t="n">
-        <v>15.1428571428571</v>
       </c>
     </row>
     <row r="204">
@@ -4432,19 +3208,13 @@
         <v>24469704</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C204" t="n">
         <v>419.833333333333</v>
       </c>
       <c r="D204" t="n">
         <v>475.166666666667</v>
-      </c>
-      <c r="E204" t="n">
-        <v>14.3333333333333</v>
-      </c>
-      <c r="F204" t="n">
-        <v>14.8333333333333</v>
       </c>
     </row>
     <row r="205">
@@ -4452,19 +3222,13 @@
         <v>24469705</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C205" t="n">
         <v>453</v>
       </c>
       <c r="D205" t="n">
         <v>478</v>
-      </c>
-      <c r="E205" t="n">
-        <v>14</v>
-      </c>
-      <c r="F205" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="206">
@@ -4472,19 +3236,13 @@
         <v>24470801</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C206" t="n">
         <v>448</v>
       </c>
       <c r="D206" t="n">
         <v>486.8</v>
-      </c>
-      <c r="E206" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="F206" t="n">
-        <v>17.6</v>
       </c>
     </row>
     <row r="207">
@@ -4492,19 +3250,13 @@
         <v>24470802</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C207" t="n">
         <v>452.333333333333</v>
       </c>
       <c r="D207" t="n">
         <v>450.333333333333</v>
-      </c>
-      <c r="E207" t="n">
-        <v>16.6666666666667</v>
-      </c>
-      <c r="F207" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="208">
@@ -4512,19 +3264,13 @@
         <v>24470803</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C208" t="n">
         <v>432.2</v>
       </c>
       <c r="D208" t="n">
         <v>481.6</v>
-      </c>
-      <c r="E208" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="F208" t="n">
-        <v>16.6</v>
       </c>
     </row>
     <row r="209">
@@ -4532,19 +3278,13 @@
         <v>24470804</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C209" t="n">
         <v>418</v>
       </c>
       <c r="D209" t="n">
         <v>430</v>
-      </c>
-      <c r="E209" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="F209" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="210">
@@ -4552,19 +3292,13 @@
         <v>24470805</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C210" t="n">
         <v>419.5</v>
       </c>
       <c r="D210" t="n">
         <v>444</v>
-      </c>
-      <c r="E210" t="n">
-        <v>18</v>
-      </c>
-      <c r="F210" t="n">
-        <v>18.5</v>
       </c>
     </row>
     <row r="211">
@@ -4572,19 +3306,13 @@
         <v>24470806</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C211" t="n">
         <v>416.6</v>
       </c>
       <c r="D211" t="n">
         <v>454.6</v>
-      </c>
-      <c r="E211" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F211" t="n">
-        <v>14.8</v>
       </c>
     </row>
     <row r="212">
@@ -4592,19 +3320,13 @@
         <v>24472301</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C212" t="n">
         <v>423.5</v>
       </c>
       <c r="D212" t="n">
         <v>466.5</v>
-      </c>
-      <c r="E212" t="n">
-        <v>15</v>
-      </c>
-      <c r="F212" t="n">
-        <v>12.5</v>
       </c>
     </row>
     <row r="213">
@@ -4612,19 +3334,13 @@
         <v>24472302</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C213" t="n">
         <v>424.75</v>
       </c>
       <c r="D213" t="n">
         <v>474.625</v>
-      </c>
-      <c r="E213" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="F213" t="n">
-        <v>15.25</v>
       </c>
     </row>
     <row r="214">
@@ -4632,19 +3348,13 @@
         <v>24472303</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C214" t="n">
         <v>437</v>
       </c>
       <c r="D214" t="n">
         <v>524.333333333333</v>
-      </c>
-      <c r="E214" t="n">
-        <v>15.3333333333333</v>
-      </c>
-      <c r="F214" t="n">
-        <v>15.3333333333333</v>
       </c>
     </row>
     <row r="215">
@@ -4652,19 +3362,13 @@
         <v>24472304</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C215" t="n">
         <v>407.333333333333</v>
       </c>
       <c r="D215" t="n">
         <v>444</v>
-      </c>
-      <c r="E215" t="n">
-        <v>13.3333333333333</v>
-      </c>
-      <c r="F215" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="216">
@@ -4672,19 +3376,13 @@
         <v>24472305</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C216" t="n">
         <v>414.333333333333</v>
       </c>
       <c r="D216" t="n">
         <v>441.333333333333</v>
-      </c>
-      <c r="E216" t="n">
-        <v>13.3333333333333</v>
-      </c>
-      <c r="F216" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="217">
@@ -4692,19 +3390,13 @@
         <v>24472701</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C217" t="n">
         <v>449.875</v>
       </c>
       <c r="D217" t="n">
         <v>497.25</v>
-      </c>
-      <c r="E217" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="F217" t="n">
-        <v>16.5</v>
       </c>
     </row>
     <row r="218">
@@ -4712,19 +3404,13 @@
         <v>24472702</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C218" t="n">
         <v>446.5</v>
       </c>
       <c r="D218" t="n">
         <v>512.3</v>
-      </c>
-      <c r="E218" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="F218" t="n">
-        <v>15.8</v>
       </c>
     </row>
     <row r="219">
@@ -4732,19 +3418,13 @@
         <v>24472703</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C219" t="n">
         <v>423.846153846154</v>
       </c>
       <c r="D219" t="n">
         <v>463.923076923077</v>
-      </c>
-      <c r="E219" t="n">
-        <v>17.1538461538462</v>
-      </c>
-      <c r="F219" t="n">
-        <v>16.5384615384615</v>
       </c>
     </row>
     <row r="220">
@@ -4752,19 +3432,13 @@
         <v>24472704</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C220" t="n">
         <v>451.25</v>
       </c>
       <c r="D220" t="n">
         <v>511.083333333333</v>
-      </c>
-      <c r="E220" t="n">
-        <v>19</v>
-      </c>
-      <c r="F220" t="n">
-        <v>18.1666666666667</v>
       </c>
     </row>
     <row r="221">
@@ -4772,19 +3446,13 @@
         <v>24472801</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C221" t="n">
         <v>436.5</v>
       </c>
       <c r="D221" t="n">
         <v>475.5</v>
-      </c>
-      <c r="E221" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="F221" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="222">
@@ -4792,19 +3460,13 @@
         <v>24472802</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C222" t="n">
         <v>417.8</v>
       </c>
       <c r="D222" t="n">
         <v>470.4</v>
-      </c>
-      <c r="E222" t="n">
-        <v>16</v>
-      </c>
-      <c r="F222" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="223">
@@ -4812,19 +3474,13 @@
         <v>24472803</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C223" t="n">
         <v>434</v>
       </c>
       <c r="D223" t="n">
         <v>468</v>
-      </c>
-      <c r="E223" t="n">
-        <v>15</v>
-      </c>
-      <c r="F223" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="224">
@@ -4832,19 +3488,13 @@
         <v>24473601</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C224" t="n">
         <v>447</v>
       </c>
       <c r="D224" t="n">
         <v>537.5</v>
-      </c>
-      <c r="E224" t="n">
-        <v>18</v>
-      </c>
-      <c r="F224" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="225">
@@ -4852,19 +3502,13 @@
         <v>24473602</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C225" t="n">
         <v>425</v>
       </c>
       <c r="D225" t="n">
         <v>500</v>
-      </c>
-      <c r="E225" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="F225" t="n">
-        <v>14.75</v>
       </c>
     </row>
     <row r="226">
@@ -4872,19 +3516,13 @@
         <v>24473603</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C226" t="n">
         <v>445.6</v>
       </c>
       <c r="D226" t="n">
         <v>557.4</v>
-      </c>
-      <c r="E226" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F226" t="n">
-        <v>15.8</v>
       </c>
     </row>
     <row r="227">
@@ -4892,19 +3530,13 @@
         <v>24474501</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C227" t="n">
         <v>467</v>
       </c>
       <c r="D227" t="n">
         <v>546.833333333333</v>
-      </c>
-      <c r="E227" t="n">
-        <v>20.1666666666667</v>
-      </c>
-      <c r="F227" t="n">
-        <v>19.3333333333333</v>
       </c>
     </row>
     <row r="228">
@@ -4912,19 +3544,13 @@
         <v>24474502</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C228" t="n">
         <v>448.5</v>
       </c>
       <c r="D228" t="n">
         <v>511.25</v>
-      </c>
-      <c r="E228" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F228" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="229">
@@ -4932,19 +3558,13 @@
         <v>24474503</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C229" t="n">
         <v>440.6</v>
       </c>
       <c r="D229" t="n">
         <v>510.8</v>
-      </c>
-      <c r="E229" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F229" t="n">
-        <v>15.6</v>
       </c>
     </row>
     <row r="230">
@@ -4952,19 +3572,13 @@
         <v>24474504</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C230" t="n">
         <v>448</v>
       </c>
       <c r="D230" t="n">
         <v>516.6</v>
-      </c>
-      <c r="E230" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="F230" t="n">
-        <v>19.6</v>
       </c>
     </row>
     <row r="231">
@@ -4972,19 +3586,13 @@
         <v>24474601</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C231" t="n">
         <v>436</v>
       </c>
       <c r="D231" t="n">
         <v>467.333333333333</v>
-      </c>
-      <c r="E231" t="n">
-        <v>14.6666666666667</v>
-      </c>
-      <c r="F231" t="n">
-        <v>14.3333333333333</v>
       </c>
     </row>
     <row r="232">
@@ -4992,19 +3600,13 @@
         <v>24474602</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C232" t="n">
         <v>416</v>
       </c>
       <c r="D232" t="n">
         <v>488.666666666667</v>
-      </c>
-      <c r="E232" t="n">
-        <v>20.1666666666667</v>
-      </c>
-      <c r="F232" t="n">
-        <v>18.6666666666667</v>
       </c>
     </row>
     <row r="233">
@@ -5012,19 +3614,13 @@
         <v>24474603</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C233" t="n">
         <v>472</v>
       </c>
       <c r="D233" t="n">
         <v>527.285714285714</v>
-      </c>
-      <c r="E233" t="n">
-        <v>16.4285714285714</v>
-      </c>
-      <c r="F233" t="n">
-        <v>17.4285714285714</v>
       </c>
     </row>
     <row r="234">
@@ -5032,19 +3628,13 @@
         <v>24475501</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C234" t="n">
         <v>452.571428571429</v>
       </c>
       <c r="D234" t="n">
         <v>525.428571428571</v>
-      </c>
-      <c r="E234" t="n">
-        <v>16.4285714285714</v>
-      </c>
-      <c r="F234" t="n">
-        <v>17.2857142857143</v>
       </c>
     </row>
     <row r="235">
@@ -5052,19 +3642,13 @@
         <v>24475502</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C235" t="n">
         <v>424</v>
       </c>
       <c r="D235" t="n">
         <v>460.555555555556</v>
-      </c>
-      <c r="E235" t="n">
-        <v>16.1111111111111</v>
-      </c>
-      <c r="F235" t="n">
-        <v>14.5555555555556</v>
       </c>
     </row>
     <row r="236">
@@ -5072,19 +3656,13 @@
         <v>24475503</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C236" t="n">
         <v>411.333333333333</v>
       </c>
       <c r="D236" t="n">
         <v>516.666666666667</v>
-      </c>
-      <c r="E236" t="n">
-        <v>15.6666666666667</v>
-      </c>
-      <c r="F236" t="n">
-        <v>15.6666666666667</v>
       </c>
     </row>
     <row r="237">
@@ -5092,19 +3670,13 @@
         <v>24475504</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C237" t="n">
         <v>421.142857142857</v>
       </c>
       <c r="D237" t="n">
         <v>482.857142857143</v>
-      </c>
-      <c r="E237" t="n">
-        <v>17.4285714285714</v>
-      </c>
-      <c r="F237" t="n">
-        <v>16.2857142857143</v>
       </c>
     </row>
     <row r="238">
@@ -5112,19 +3684,13 @@
         <v>24475505</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C238" t="n">
         <v>445.777777777778</v>
       </c>
       <c r="D238" t="n">
         <v>513.333333333333</v>
-      </c>
-      <c r="E238" t="n">
-        <v>17.7777777777778</v>
-      </c>
-      <c r="F238" t="n">
-        <v>15.2222222222222</v>
       </c>
     </row>
     <row r="239">
@@ -5132,19 +3698,13 @@
         <v>24475506</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C239" t="n">
         <v>449</v>
       </c>
       <c r="D239" t="n">
         <v>472.2</v>
-      </c>
-      <c r="E239" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="F239" t="n">
-        <v>18.4</v>
       </c>
     </row>
     <row r="240">
@@ -5152,19 +3712,13 @@
         <v>24475507</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C240" t="n">
         <v>511.2</v>
       </c>
       <c r="D240" t="n">
         <v>596.4</v>
-      </c>
-      <c r="E240" t="n">
-        <v>16</v>
-      </c>
-      <c r="F240" t="n">
-        <v>15.4</v>
       </c>
     </row>
     <row r="241">
@@ -5172,19 +3726,13 @@
         <v>24476401</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C241" t="n">
         <v>436.833333333333</v>
       </c>
       <c r="D241" t="n">
         <v>480.5</v>
-      </c>
-      <c r="E241" t="n">
-        <v>18.3333333333333</v>
-      </c>
-      <c r="F241" t="n">
-        <v>17.1666666666667</v>
       </c>
     </row>
     <row r="242">
@@ -5192,19 +3740,13 @@
         <v>24476402</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C242" t="n">
         <v>448.666666666667</v>
       </c>
       <c r="D242" t="n">
         <v>528.5</v>
-      </c>
-      <c r="E242" t="n">
-        <v>15.3333333333333</v>
-      </c>
-      <c r="F242" t="n">
-        <v>16.6666666666667</v>
       </c>
     </row>
     <row r="243">
@@ -5212,19 +3754,13 @@
         <v>24477401</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C243" t="n">
         <v>461.666666666667</v>
       </c>
       <c r="D243" t="n">
         <v>475</v>
-      </c>
-      <c r="E243" t="n">
-        <v>12</v>
-      </c>
-      <c r="F243" t="n">
-        <v>13.6666666666667</v>
       </c>
     </row>
     <row r="244">
@@ -5232,19 +3768,13 @@
         <v>24477402</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C244" t="n">
         <v>428.75</v>
       </c>
       <c r="D244" t="n">
         <v>485.75</v>
-      </c>
-      <c r="E244" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="F244" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="245">
@@ -5252,19 +3782,13 @@
         <v>24477403</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C245" t="n">
         <v>436.75</v>
       </c>
       <c r="D245" t="n">
         <v>499.5</v>
-      </c>
-      <c r="E245" t="n">
-        <v>14.75</v>
-      </c>
-      <c r="F245" t="n">
-        <v>14.75</v>
       </c>
     </row>
     <row r="246">
@@ -5272,19 +3796,13 @@
         <v>24477404</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C246" t="n">
         <v>430</v>
       </c>
       <c r="D246" t="n">
         <v>496.666666666667</v>
-      </c>
-      <c r="E246" t="n">
-        <v>15.6666666666667</v>
-      </c>
-      <c r="F246" t="n">
-        <v>14.6666666666667</v>
       </c>
     </row>
     <row r="247">
@@ -5292,19 +3810,13 @@
         <v>24477405</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C247" t="n">
         <v>432</v>
       </c>
       <c r="D247" t="n">
         <v>463.5</v>
-      </c>
-      <c r="E247" t="n">
-        <v>14.6666666666667</v>
-      </c>
-      <c r="F247" t="n">
-        <v>15.6666666666667</v>
       </c>
     </row>
     <row r="248">
@@ -5312,19 +3824,13 @@
         <v>24477602</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C248" t="n">
         <v>421</v>
       </c>
       <c r="D248" t="n">
         <v>454.25</v>
-      </c>
-      <c r="E248" t="n">
-        <v>18</v>
-      </c>
-      <c r="F248" t="n">
-        <v>18.75</v>
       </c>
     </row>
     <row r="249">
@@ -5332,19 +3838,13 @@
         <v>24477603</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C249" t="n">
         <v>419.5</v>
       </c>
       <c r="D249" t="n">
         <v>444.75</v>
-      </c>
-      <c r="E249" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="F249" t="n">
-        <v>15.25</v>
       </c>
     </row>
     <row r="250">
@@ -5352,19 +3852,13 @@
         <v>24477604</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C250" t="n">
         <v>459</v>
       </c>
       <c r="D250" t="n">
         <v>502.6</v>
-      </c>
-      <c r="E250" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="F250" t="n">
-        <v>17.2</v>
       </c>
     </row>
     <row r="251">
@@ -5372,19 +3866,13 @@
         <v>24477605</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C251" t="n">
         <v>424.333333333333</v>
       </c>
       <c r="D251" t="n">
         <v>487.333333333333</v>
-      </c>
-      <c r="E251" t="n">
-        <v>13.6666666666667</v>
-      </c>
-      <c r="F251" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="252">
@@ -5392,19 +3880,13 @@
         <v>24477606</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C252" t="n">
         <v>437.4</v>
       </c>
       <c r="D252" t="n">
         <v>451</v>
-      </c>
-      <c r="E252" t="n">
-        <v>14</v>
-      </c>
-      <c r="F252" t="n">
-        <v>15.4</v>
       </c>
     </row>
     <row r="253">
@@ -5412,19 +3894,13 @@
         <v>24477607</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C253" t="n">
         <v>457.142857142857</v>
       </c>
       <c r="D253" t="n">
         <v>516</v>
-      </c>
-      <c r="E253" t="n">
-        <v>16.4285714285714</v>
-      </c>
-      <c r="F253" t="n">
-        <v>17.7142857142857</v>
       </c>
     </row>
     <row r="254">
@@ -5432,19 +3908,13 @@
         <v>24477608</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C254" t="n">
         <v>437.5</v>
       </c>
       <c r="D254" t="n">
         <v>472.75</v>
-      </c>
-      <c r="E254" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="F254" t="n">
-        <v>14.5</v>
       </c>
     </row>
     <row r="255">
@@ -5452,19 +3922,13 @@
         <v>24478001</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C255" t="n">
         <v>500.857142857143</v>
       </c>
       <c r="D255" t="n">
         <v>584</v>
-      </c>
-      <c r="E255" t="n">
-        <v>14.7142857142857</v>
-      </c>
-      <c r="F255" t="n">
-        <v>14.2857142857143</v>
       </c>
     </row>
     <row r="256">
@@ -5472,19 +3936,13 @@
         <v>24478002</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C256" t="n">
         <v>451.75</v>
       </c>
       <c r="D256" t="n">
         <v>539</v>
-      </c>
-      <c r="E256" t="n">
-        <v>16.25</v>
-      </c>
-      <c r="F256" t="n">
-        <v>17.5</v>
       </c>
     </row>
     <row r="257">
@@ -5492,19 +3950,13 @@
         <v>24478003</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C257" t="n">
         <v>473.5</v>
       </c>
       <c r="D257" t="n">
         <v>528</v>
-      </c>
-      <c r="E257" t="n">
-        <v>14.75</v>
-      </c>
-      <c r="F257" t="n">
-        <v>16.75</v>
       </c>
     </row>
     <row r="258">
@@ -5512,19 +3964,13 @@
         <v>24479601</v>
       </c>
       <c r="B258" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C258" t="n">
         <v>429.75</v>
       </c>
       <c r="D258" t="n">
         <v>471.125</v>
-      </c>
-      <c r="E258" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="F258" t="n">
-        <v>16.5</v>
       </c>
     </row>
     <row r="259">
@@ -5532,19 +3978,13 @@
         <v>24479602</v>
       </c>
       <c r="B259" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C259" t="n">
         <v>416</v>
       </c>
       <c r="D259" t="n">
         <v>458</v>
-      </c>
-      <c r="E259" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="F259" t="n">
-        <v>15.25</v>
       </c>
     </row>
     <row r="260">
@@ -5552,19 +3992,13 @@
         <v>24479603</v>
       </c>
       <c r="B260" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C260" t="n">
         <v>409.5</v>
       </c>
       <c r="D260" t="n">
         <v>446.5</v>
-      </c>
-      <c r="E260" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="F260" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="261">
@@ -5572,19 +4006,13 @@
         <v>24479604</v>
       </c>
       <c r="B261" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C261" t="n">
         <v>442.555555555556</v>
       </c>
       <c r="D261" t="n">
         <v>480.222222222222</v>
-      </c>
-      <c r="E261" t="n">
-        <v>16.2222222222222</v>
-      </c>
-      <c r="F261" t="n">
-        <v>15.2222222222222</v>
       </c>
     </row>
     <row r="262">
@@ -5592,19 +4020,13 @@
         <v>24479901</v>
       </c>
       <c r="B262" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C262" t="n">
         <v>424</v>
       </c>
       <c r="D262" t="n">
         <v>471.444444444444</v>
-      </c>
-      <c r="E262" t="n">
-        <v>16</v>
-      </c>
-      <c r="F262" t="n">
-        <v>15.1111111111111</v>
       </c>
     </row>
     <row r="263">
@@ -5612,19 +4034,13 @@
         <v>24479902</v>
       </c>
       <c r="B263" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C263" t="n">
         <v>437.833333333333</v>
       </c>
       <c r="D263" t="n">
         <v>507.333333333333</v>
-      </c>
-      <c r="E263" t="n">
-        <v>17.6666666666667</v>
-      </c>
-      <c r="F263" t="n">
-        <v>15.3333333333333</v>
       </c>
     </row>
     <row r="264">
@@ -5632,19 +4048,13 @@
         <v>24479903</v>
       </c>
       <c r="B264" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C264" t="n">
         <v>437.444444444444</v>
       </c>
       <c r="D264" t="n">
         <v>496.777777777778</v>
-      </c>
-      <c r="E264" t="n">
-        <v>20.3333333333333</v>
-      </c>
-      <c r="F264" t="n">
-        <v>19.3333333333333</v>
       </c>
     </row>
     <row r="265">
@@ -5652,19 +4062,13 @@
         <v>24479904</v>
       </c>
       <c r="B265" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C265" t="n">
         <v>420.75</v>
       </c>
       <c r="D265" t="n">
         <v>465.5</v>
-      </c>
-      <c r="E265" t="n">
-        <v>16.25</v>
-      </c>
-      <c r="F265" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="266">
@@ -5672,19 +4076,13 @@
         <v>24480101</v>
       </c>
       <c r="B266" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C266" t="n">
         <v>431.090909090909</v>
       </c>
       <c r="D266" t="n">
         <v>494.272727272727</v>
-      </c>
-      <c r="E266" t="n">
-        <v>19.6363636363636</v>
-      </c>
-      <c r="F266" t="n">
-        <v>18.7272727272727</v>
       </c>
     </row>
     <row r="267">
@@ -5692,19 +4090,13 @@
         <v>24480102</v>
       </c>
       <c r="B267" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C267" t="n">
         <v>432</v>
       </c>
       <c r="D267" t="n">
         <v>494.666666666667</v>
-      </c>
-      <c r="E267" t="n">
-        <v>15.3333333333333</v>
-      </c>
-      <c r="F267" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="268">
@@ -5712,19 +4104,13 @@
         <v>24480103</v>
       </c>
       <c r="B268" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C268" t="n">
         <v>446.5</v>
       </c>
       <c r="D268" t="n">
         <v>547.375</v>
-      </c>
-      <c r="E268" t="n">
-        <v>21.75</v>
-      </c>
-      <c r="F268" t="n">
-        <v>19.75</v>
       </c>
     </row>
     <row r="269">
@@ -5732,19 +4118,13 @@
         <v>24480104</v>
       </c>
       <c r="B269" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C269" t="n">
         <v>436</v>
       </c>
       <c r="D269" t="n">
         <v>512.75</v>
-      </c>
-      <c r="E269" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F269" t="n">
-        <v>20.5</v>
       </c>
     </row>
     <row r="270">
@@ -5752,19 +4132,13 @@
         <v>24480601</v>
       </c>
       <c r="B270" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C270" t="n">
         <v>425</v>
       </c>
       <c r="D270" t="n">
         <v>472.333333333333</v>
-      </c>
-      <c r="E270" t="n">
-        <v>16.3333333333333</v>
-      </c>
-      <c r="F270" t="n">
-        <v>14.3333333333333</v>
       </c>
     </row>
     <row r="271">
@@ -5772,19 +4146,13 @@
         <v>24480602</v>
       </c>
       <c r="B271" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C271" t="n">
         <v>468.555555555556</v>
       </c>
       <c r="D271" t="n">
         <v>501.444444444444</v>
-      </c>
-      <c r="E271" t="n">
-        <v>17.3333333333333</v>
-      </c>
-      <c r="F271" t="n">
-        <v>16.4444444444444</v>
       </c>
     </row>
     <row r="272">
@@ -5792,19 +4160,13 @@
         <v>24480603</v>
       </c>
       <c r="B272" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C272" t="n">
         <v>446.875</v>
       </c>
       <c r="D272" t="n">
         <v>484.375</v>
-      </c>
-      <c r="E272" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F272" t="n">
-        <v>14.375</v>
       </c>
     </row>
     <row r="273">
@@ -5812,19 +4174,13 @@
         <v>24480604</v>
       </c>
       <c r="B273" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C273" t="n">
         <v>473.875</v>
       </c>
       <c r="D273" t="n">
         <v>532.25</v>
-      </c>
-      <c r="E273" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="F273" t="n">
-        <v>15.375</v>
       </c>
     </row>
     <row r="274">
@@ -5832,19 +4188,13 @@
         <v>24480605</v>
       </c>
       <c r="B274" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C274" t="n">
         <v>464.625</v>
       </c>
       <c r="D274" t="n">
         <v>554.125</v>
-      </c>
-      <c r="E274" t="n">
-        <v>18.375</v>
-      </c>
-      <c r="F274" t="n">
-        <v>15.75</v>
       </c>
     </row>
     <row r="275">
@@ -5852,19 +4202,13 @@
         <v>24480606</v>
       </c>
       <c r="B275" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C275" t="n">
         <v>468.2</v>
       </c>
       <c r="D275" t="n">
         <v>564</v>
-      </c>
-      <c r="E275" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="F275" t="n">
-        <v>15.4</v>
       </c>
     </row>
     <row r="276">
@@ -5872,19 +4216,13 @@
         <v>24480607</v>
       </c>
       <c r="B276" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C276" t="n">
         <v>458.75</v>
       </c>
       <c r="D276" t="n">
         <v>505</v>
-      </c>
-      <c r="E276" t="n">
-        <v>16</v>
-      </c>
-      <c r="F276" t="n">
-        <v>15.75</v>
       </c>
     </row>
     <row r="277">
@@ -5892,19 +4230,13 @@
         <v>24481801</v>
       </c>
       <c r="B277" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C277" t="n">
         <v>426.666666666667</v>
       </c>
       <c r="D277" t="n">
         <v>478.166666666667</v>
-      </c>
-      <c r="E277" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="F277" t="n">
-        <v>18.3333333333333</v>
       </c>
     </row>
     <row r="278">
@@ -5912,19 +4244,13 @@
         <v>24481802</v>
       </c>
       <c r="B278" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C278" t="n">
         <v>442</v>
       </c>
       <c r="D278" t="n">
         <v>494</v>
-      </c>
-      <c r="E278" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F278" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="279">
@@ -5932,19 +4258,13 @@
         <v>24481803</v>
       </c>
       <c r="B279" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C279" t="n">
         <v>424.166666666667</v>
       </c>
       <c r="D279" t="n">
         <v>464.166666666667</v>
-      </c>
-      <c r="E279" t="n">
-        <v>18.6666666666667</v>
-      </c>
-      <c r="F279" t="n">
-        <v>16.8333333333333</v>
       </c>
     </row>
     <row r="280">
@@ -5952,19 +4272,13 @@
         <v>24481804</v>
       </c>
       <c r="B280" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C280" t="n">
         <v>434.916666666667</v>
       </c>
       <c r="D280" t="n">
         <v>473.583333333333</v>
-      </c>
-      <c r="E280" t="n">
-        <v>18</v>
-      </c>
-      <c r="F280" t="n">
-        <v>17.75</v>
       </c>
     </row>
     <row r="281">
@@ -5972,19 +4286,13 @@
         <v>24483101</v>
       </c>
       <c r="B281" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C281" t="n">
         <v>438</v>
       </c>
       <c r="D281" t="n">
         <v>511.285714285714</v>
-      </c>
-      <c r="E281" t="n">
-        <v>20.2857142857143</v>
-      </c>
-      <c r="F281" t="n">
-        <v>17.8571428571429</v>
       </c>
     </row>
     <row r="282">
@@ -5992,19 +4300,13 @@
         <v>24483102</v>
       </c>
       <c r="B282" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C282" t="n">
         <v>426.4</v>
       </c>
       <c r="D282" t="n">
         <v>497.8</v>
-      </c>
-      <c r="E282" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="F282" t="n">
-        <v>16.4</v>
       </c>
     </row>
     <row r="283">
@@ -6012,19 +4314,13 @@
         <v>24483103</v>
       </c>
       <c r="B283" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C283" t="n">
         <v>434</v>
       </c>
       <c r="D283" t="n">
         <v>500.333333333333</v>
-      </c>
-      <c r="E283" t="n">
-        <v>23</v>
-      </c>
-      <c r="F283" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="284">
@@ -6032,19 +4328,13 @@
         <v>24483901</v>
       </c>
       <c r="B284" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C284" t="n">
         <v>434.8</v>
       </c>
       <c r="D284" t="n">
         <v>524</v>
-      </c>
-      <c r="E284" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="F284" t="n">
-        <v>16.8</v>
       </c>
     </row>
     <row r="285">
@@ -6052,19 +4342,13 @@
         <v>24483902</v>
       </c>
       <c r="B285" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C285" t="n">
         <v>434.555555555556</v>
       </c>
       <c r="D285" t="n">
         <v>515.444444444444</v>
-      </c>
-      <c r="E285" t="n">
-        <v>18.3333333333333</v>
-      </c>
-      <c r="F285" t="n">
-        <v>17.6666666666667</v>
       </c>
     </row>
     <row r="286">
@@ -6072,19 +4356,13 @@
         <v>24483903</v>
       </c>
       <c r="B286" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C286" t="n">
         <v>482.75</v>
       </c>
       <c r="D286" t="n">
         <v>587.625</v>
-      </c>
-      <c r="E286" t="n">
-        <v>21.375</v>
-      </c>
-      <c r="F286" t="n">
-        <v>19.5</v>
       </c>
     </row>
     <row r="287">
@@ -6092,19 +4370,13 @@
         <v>24483904</v>
       </c>
       <c r="B287" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C287" t="n">
         <v>461.75</v>
       </c>
       <c r="D287" t="n">
         <v>544.625</v>
-      </c>
-      <c r="E287" t="n">
-        <v>17.25</v>
-      </c>
-      <c r="F287" t="n">
-        <v>17.875</v>
       </c>
     </row>
     <row r="288">
@@ -6112,19 +4384,13 @@
         <v>24483905</v>
       </c>
       <c r="B288" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C288" t="n">
         <v>436.142857142857</v>
       </c>
       <c r="D288" t="n">
         <v>496.857142857143</v>
-      </c>
-      <c r="E288" t="n">
-        <v>17</v>
-      </c>
-      <c r="F288" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="289">
@@ -6132,19 +4398,13 @@
         <v>25288501</v>
       </c>
       <c r="B289" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C289" t="n">
         <v>467.5</v>
       </c>
       <c r="D289" t="n">
         <v>550</v>
-      </c>
-      <c r="E289" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="F289" t="n">
-        <v>19.5</v>
       </c>
     </row>
     <row r="290">
@@ -6152,19 +4412,13 @@
         <v>25288502</v>
       </c>
       <c r="B290" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C290" t="n">
         <v>452</v>
       </c>
       <c r="D290" t="n">
         <v>486.166666666667</v>
-      </c>
-      <c r="E290" t="n">
-        <v>21.6666666666667</v>
-      </c>
-      <c r="F290" t="n">
-        <v>22.1666666666667</v>
       </c>
     </row>
     <row r="291">
@@ -6172,19 +4426,13 @@
         <v>25288503</v>
       </c>
       <c r="B291" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C291" t="n">
         <v>461.25</v>
       </c>
       <c r="D291" t="n">
         <v>494.75</v>
-      </c>
-      <c r="E291" t="n">
-        <v>21.375</v>
-      </c>
-      <c r="F291" t="n">
-        <v>21.75</v>
       </c>
     </row>
     <row r="292">
@@ -6192,19 +4440,13 @@
         <v>25288504</v>
       </c>
       <c r="B292" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C292" t="n">
         <v>445.285714285714</v>
       </c>
       <c r="D292" t="n">
         <v>499.285714285714</v>
-      </c>
-      <c r="E292" t="n">
-        <v>19.8571428571429</v>
-      </c>
-      <c r="F292" t="n">
-        <v>20.8571428571429</v>
       </c>
     </row>
     <row r="293">
@@ -6212,19 +4454,13 @@
         <v>25388801</v>
       </c>
       <c r="B293" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C293" t="n">
         <v>432.857142857143</v>
       </c>
       <c r="D293" t="n">
         <v>504.142857142857</v>
-      </c>
-      <c r="E293" t="n">
-        <v>19</v>
-      </c>
-      <c r="F293" t="n">
-        <v>18.2857142857143</v>
       </c>
     </row>
     <row r="294">
@@ -6232,19 +4468,13 @@
         <v>25388802</v>
       </c>
       <c r="B294" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C294" t="n">
         <v>458</v>
       </c>
       <c r="D294" t="n">
         <v>544</v>
-      </c>
-      <c r="E294" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="F294" t="n">
-        <v>18.4</v>
       </c>
     </row>
     <row r="295">
@@ -6252,19 +4482,13 @@
         <v>25388803</v>
       </c>
       <c r="B295" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C295" t="n">
         <v>446.333333333333</v>
       </c>
       <c r="D295" t="n">
         <v>494.666666666667</v>
-      </c>
-      <c r="E295" t="n">
-        <v>14.6666666666667</v>
-      </c>
-      <c r="F295" t="n">
-        <v>16.6666666666667</v>
       </c>
     </row>
     <row r="296">
@@ -6272,19 +4496,13 @@
         <v>25789901</v>
       </c>
       <c r="B296" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C296" t="n">
         <v>440</v>
       </c>
       <c r="D296" t="n">
         <v>474.545454545455</v>
-      </c>
-      <c r="E296" t="n">
-        <v>20.2727272727273</v>
-      </c>
-      <c r="F296" t="n">
-        <v>19.7272727272727</v>
       </c>
     </row>
     <row r="297">
@@ -6292,19 +4510,13 @@
         <v>25789902</v>
       </c>
       <c r="B297" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C297" t="n">
         <v>431</v>
       </c>
       <c r="D297" t="n">
         <v>478.125</v>
-      </c>
-      <c r="E297" t="n">
-        <v>21</v>
-      </c>
-      <c r="F297" t="n">
-        <v>18.375</v>
       </c>
     </row>
     <row r="298">
@@ -6312,19 +4524,13 @@
         <v>25789903</v>
       </c>
       <c r="B298" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C298" t="n">
         <v>433</v>
       </c>
       <c r="D298" t="n">
         <v>477.6</v>
-      </c>
-      <c r="E298" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="F298" t="n">
-        <v>20.2</v>
       </c>
     </row>
     <row r="299">
@@ -6332,19 +4538,13 @@
         <v>25789904</v>
       </c>
       <c r="B299" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C299" t="n">
         <v>432.7</v>
       </c>
       <c r="D299" t="n">
         <v>492.4</v>
-      </c>
-      <c r="E299" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="F299" t="n">
-        <v>18.6</v>
       </c>
     </row>
     <row r="300">
@@ -6352,19 +4552,13 @@
         <v>25789905</v>
       </c>
       <c r="B300" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C300" t="n">
         <v>441.25</v>
       </c>
       <c r="D300" t="n">
         <v>489.916666666667</v>
-      </c>
-      <c r="E300" t="n">
-        <v>19.1666666666667</v>
-      </c>
-      <c r="F300" t="n">
-        <v>18.5</v>
       </c>
     </row>
     <row r="301">
@@ -6372,19 +4566,13 @@
         <v>25790501</v>
       </c>
       <c r="B301" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C301" t="n">
         <v>462.666666666667</v>
       </c>
       <c r="D301" t="n">
         <v>510.666666666667</v>
-      </c>
-      <c r="E301" t="n">
-        <v>18.3333333333333</v>
-      </c>
-      <c r="F301" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="302">
@@ -6392,19 +4580,13 @@
         <v>25790502</v>
       </c>
       <c r="B302" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C302" t="n">
         <v>496.142857142857</v>
       </c>
       <c r="D302" t="n">
         <v>530.714285714286</v>
-      </c>
-      <c r="E302" t="n">
-        <v>18</v>
-      </c>
-      <c r="F302" t="n">
-        <v>17.8571428571429</v>
       </c>
     </row>
     <row r="303">
@@ -6412,19 +4594,13 @@
         <v>25790503</v>
       </c>
       <c r="B303" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C303" t="n">
         <v>500</v>
       </c>
       <c r="D303" t="n">
         <v>536</v>
-      </c>
-      <c r="E303" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F303" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="304">
@@ -6432,19 +4608,13 @@
         <v>25790504</v>
       </c>
       <c r="B304" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C304" t="n">
         <v>474.333333333333</v>
       </c>
       <c r="D304" t="n">
         <v>492.444444444444</v>
-      </c>
-      <c r="E304" t="n">
-        <v>23.7777777777778</v>
-      </c>
-      <c r="F304" t="n">
-        <v>20.7777777777778</v>
       </c>
     </row>
     <row r="305">
@@ -6452,19 +4622,13 @@
         <v>25790505</v>
       </c>
       <c r="B305" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C305" t="n">
         <v>481.222222222222</v>
       </c>
       <c r="D305" t="n">
         <v>527.444444444444</v>
-      </c>
-      <c r="E305" t="n">
-        <v>21.5555555555556</v>
-      </c>
-      <c r="F305" t="n">
-        <v>21.1111111111111</v>
       </c>
     </row>
     <row r="306">
@@ -6472,19 +4636,13 @@
         <v>25790506</v>
       </c>
       <c r="B306" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C306" t="n">
         <v>458.25</v>
       </c>
       <c r="D306" t="n">
         <v>492.083333333333</v>
-      </c>
-      <c r="E306" t="n">
-        <v>20.0833333333333</v>
-      </c>
-      <c r="F306" t="n">
-        <v>18.6666666666667</v>
       </c>
     </row>
     <row r="307">
@@ -6492,19 +4650,13 @@
         <v>25790507</v>
       </c>
       <c r="B307" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C307" t="n">
         <v>471.333333333333</v>
       </c>
       <c r="D307" t="n">
         <v>469.166666666667</v>
-      </c>
-      <c r="E307" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F307" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="308">
@@ -6512,19 +4664,13 @@
         <v>25991501</v>
       </c>
       <c r="B308" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C308" t="n">
         <v>438.5</v>
       </c>
       <c r="D308" t="n">
         <v>492</v>
-      </c>
-      <c r="E308" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="F308" t="n">
-        <v>18.5</v>
       </c>
     </row>
     <row r="309">
@@ -6532,19 +4678,13 @@
         <v>25991502</v>
       </c>
       <c r="B309" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C309" t="n">
         <v>451.454545454545</v>
       </c>
       <c r="D309" t="n">
         <v>501.545454545455</v>
-      </c>
-      <c r="E309" t="n">
-        <v>20.8181818181818</v>
-      </c>
-      <c r="F309" t="n">
-        <v>18.7272727272727</v>
       </c>
     </row>
     <row r="310">
@@ -6552,19 +4692,13 @@
         <v>25991503</v>
       </c>
       <c r="B310" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C310" t="n">
         <v>428.6</v>
       </c>
       <c r="D310" t="n">
         <v>521</v>
-      </c>
-      <c r="E310" t="n">
-        <v>23</v>
-      </c>
-      <c r="F310" t="n">
-        <v>17.2</v>
       </c>
     </row>
     <row r="311">
@@ -6572,19 +4706,13 @@
         <v>26192701</v>
       </c>
       <c r="B311" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C311" t="n">
         <v>449.583333333333</v>
       </c>
       <c r="D311" t="n">
         <v>525.75</v>
-      </c>
-      <c r="E311" t="n">
-        <v>20.9166666666667</v>
-      </c>
-      <c r="F311" t="n">
-        <v>19.3333333333333</v>
       </c>
     </row>
     <row r="312">
@@ -6592,19 +4720,13 @@
         <v>26192702</v>
       </c>
       <c r="B312" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C312" t="n">
         <v>446.6</v>
       </c>
       <c r="D312" t="n">
         <v>513.733333333333</v>
-      </c>
-      <c r="E312" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="F312" t="n">
-        <v>18.2666666666667</v>
       </c>
     </row>
     <row r="313">
@@ -6612,19 +4734,13 @@
         <v>26192703</v>
       </c>
       <c r="B313" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C313" t="n">
         <v>438.625</v>
       </c>
       <c r="D313" t="n">
         <v>531.5</v>
-      </c>
-      <c r="E313" t="n">
-        <v>19.625</v>
-      </c>
-      <c r="F313" t="n">
-        <v>19.625</v>
       </c>
     </row>
     <row r="314">
@@ -6632,19 +4748,13 @@
         <v>26192704</v>
       </c>
       <c r="B314" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C314" t="n">
         <v>455.642857142857</v>
       </c>
       <c r="D314" t="n">
         <v>512.5</v>
-      </c>
-      <c r="E314" t="n">
-        <v>20.5714285714286</v>
-      </c>
-      <c r="F314" t="n">
-        <v>18.7142857142857</v>
       </c>
     </row>
     <row r="315">
@@ -6652,19 +4762,13 @@
         <v>26293701</v>
       </c>
       <c r="B315" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C315" t="n">
         <v>468.071428571429</v>
       </c>
       <c r="D315" t="n">
         <v>535.285714285714</v>
-      </c>
-      <c r="E315" t="n">
-        <v>22.7857142857143</v>
-      </c>
-      <c r="F315" t="n">
-        <v>22.2142857142857</v>
       </c>
     </row>
     <row r="316">
@@ -6672,19 +4776,13 @@
         <v>26293702</v>
       </c>
       <c r="B316" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C316" t="n">
         <v>487.2</v>
       </c>
       <c r="D316" t="n">
         <v>560.4</v>
-      </c>
-      <c r="E316" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="F316" t="n">
-        <v>22.6</v>
       </c>
     </row>
     <row r="317">
@@ -6692,19 +4790,13 @@
         <v>26293703</v>
       </c>
       <c r="B317" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C317" t="n">
         <v>466.571428571429</v>
       </c>
       <c r="D317" t="n">
         <v>550.285714285714</v>
-      </c>
-      <c r="E317" t="n">
-        <v>23.7142857142857</v>
-      </c>
-      <c r="F317" t="n">
-        <v>25.2857142857143</v>
       </c>
     </row>
     <row r="318">
@@ -6712,19 +4804,13 @@
         <v>26293704</v>
       </c>
       <c r="B318" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C318" t="n">
         <v>471.166666666667</v>
       </c>
       <c r="D318" t="n">
         <v>525.333333333333</v>
-      </c>
-      <c r="E318" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F318" t="n">
-        <v>26.5</v>
       </c>
     </row>
     <row r="319">
@@ -6732,19 +4818,13 @@
         <v>26494501</v>
       </c>
       <c r="B319" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C319" t="n">
         <v>450</v>
       </c>
       <c r="D319" t="n">
         <v>510.785714285714</v>
-      </c>
-      <c r="E319" t="n">
-        <v>20.5714285714286</v>
-      </c>
-      <c r="F319" t="n">
-        <v>21.6428571428571</v>
       </c>
     </row>
     <row r="320">
@@ -6752,19 +4832,13 @@
         <v>26494502</v>
       </c>
       <c r="B320" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C320" t="n">
         <v>437.8</v>
       </c>
       <c r="D320" t="n">
         <v>499.6</v>
-      </c>
-      <c r="E320" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="F320" t="n">
-        <v>18.6</v>
       </c>
     </row>
     <row r="321">
@@ -6772,19 +4846,13 @@
         <v>26494503</v>
       </c>
       <c r="B321" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C321" t="n">
         <v>456.8</v>
       </c>
       <c r="D321" t="n">
         <v>523.5</v>
-      </c>
-      <c r="E321" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="F321" t="n">
-        <v>19.5</v>
       </c>
     </row>
     <row r="322">
@@ -6792,19 +4860,13 @@
         <v>26494504</v>
       </c>
       <c r="B322" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C322" t="n">
         <v>467.222222222222</v>
       </c>
       <c r="D322" t="n">
         <v>533.777777777778</v>
-      </c>
-      <c r="E322" t="n">
-        <v>20.3333333333333</v>
-      </c>
-      <c r="F322" t="n">
-        <v>19.4444444444444</v>
       </c>
     </row>
     <row r="323">
@@ -6812,19 +4874,13 @@
         <v>26494505</v>
       </c>
       <c r="B323" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C323" t="n">
         <v>459.363636363636</v>
       </c>
       <c r="D323" t="n">
         <v>510.272727272727</v>
-      </c>
-      <c r="E323" t="n">
-        <v>20.4545454545455</v>
-      </c>
-      <c r="F323" t="n">
-        <v>18.6363636363636</v>
       </c>
     </row>
   </sheetData>
